--- a/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C2">
-        <v>0.9813768726311656</v>
+        <v>0.9725447688635456</v>
       </c>
       <c r="D2">
-        <v>1.003828651668716</v>
+        <v>0.9965522407309305</v>
       </c>
       <c r="E2">
-        <v>0.9879185201182622</v>
+        <v>0.9821853630304114</v>
       </c>
       <c r="F2">
-        <v>0.9918171986185895</v>
+        <v>0.9478811973744027</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038172872586142</v>
+        <v>1.034768600081002</v>
       </c>
       <c r="J2">
-        <v>1.004129233186834</v>
+        <v>0.9955788616205481</v>
       </c>
       <c r="K2">
-        <v>1.015234903756654</v>
+        <v>1.008059818220243</v>
       </c>
       <c r="L2">
-        <v>0.9995487753020758</v>
+        <v>0.9938985927644635</v>
       </c>
       <c r="M2">
-        <v>1.003391722416735</v>
+        <v>0.9601177713819125</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9911134112553646</v>
+        <v>0.9810752865364114</v>
       </c>
       <c r="D3">
-        <v>1.01140212197602</v>
+        <v>1.003082691975359</v>
       </c>
       <c r="E3">
-        <v>0.9963527889294281</v>
+        <v>0.9893006696787078</v>
       </c>
       <c r="F3">
-        <v>1.001583080400449</v>
+        <v>0.9594506003814179</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04180404578562</v>
+        <v>1.037575536979448</v>
       </c>
       <c r="J3">
-        <v>1.011849300555447</v>
+        <v>1.002095499127449</v>
       </c>
       <c r="K3">
-        <v>1.021891159989933</v>
+        <v>1.013676280554548</v>
       </c>
       <c r="L3">
-        <v>1.007032550197164</v>
+        <v>1.000072306032163</v>
       </c>
       <c r="M3">
-        <v>1.01219574541287</v>
+        <v>0.9706300279203071</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9971602011783041</v>
+        <v>0.9863867917154727</v>
       </c>
       <c r="D4">
-        <v>1.016108499905863</v>
+        <v>1.007149904311145</v>
       </c>
       <c r="E4">
-        <v>1.001591635745978</v>
+        <v>0.9937375800104316</v>
       </c>
       <c r="F4">
-        <v>1.00765666475767</v>
+        <v>0.9666384989203705</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044042374688356</v>
+        <v>1.039304671130102</v>
       </c>
       <c r="J4">
-        <v>1.016636829316832</v>
+        <v>1.006145253642514</v>
       </c>
       <c r="K4">
-        <v>1.026016320564198</v>
+        <v>1.017162795468886</v>
       </c>
       <c r="L4">
-        <v>1.011670889009828</v>
+        <v>1.003912179210471</v>
       </c>
       <c r="M4">
-        <v>1.01766355064497</v>
+        <v>0.9771569730101046</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9996461495285908</v>
+        <v>0.9885733955278705</v>
       </c>
       <c r="D5">
-        <v>1.018043907362717</v>
+        <v>1.008824356939482</v>
       </c>
       <c r="E5">
-        <v>1.003745502492167</v>
+        <v>0.9955655954624294</v>
       </c>
       <c r="F5">
-        <v>1.010155611571036</v>
+        <v>0.969594532390992</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04495848332981</v>
+        <v>1.040011962898579</v>
       </c>
       <c r="J5">
-        <v>1.018603322137434</v>
+        <v>1.007810517740365</v>
       </c>
       <c r="K5">
-        <v>1.027710062946708</v>
+        <v>1.018595475116799</v>
       </c>
       <c r="L5">
-        <v>1.013575460652541</v>
+        <v>1.005491884058362</v>
       </c>
       <c r="M5">
-        <v>1.019911427611556</v>
+        <v>0.9798401103318212</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000060382258821</v>
+        <v>0.9889379126184185</v>
       </c>
       <c r="D6">
-        <v>1.018366429823474</v>
+        <v>1.009103496962494</v>
       </c>
       <c r="E6">
-        <v>1.004104402034757</v>
+        <v>0.9958704167216106</v>
       </c>
       <c r="F6">
-        <v>1.010572124906362</v>
+        <v>0.9700871587135825</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045110889995613</v>
+        <v>1.040129601884505</v>
       </c>
       <c r="J6">
-        <v>1.018930892961742</v>
+        <v>1.008088011580259</v>
       </c>
       <c r="K6">
-        <v>1.027992158790047</v>
+        <v>1.018834152537319</v>
       </c>
       <c r="L6">
-        <v>1.013892679071492</v>
+        <v>1.005755163584024</v>
       </c>
       <c r="M6">
-        <v>1.020285986196453</v>
+        <v>0.9802871926574311</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9971936334605498</v>
+        <v>0.9864161870067117</v>
       </c>
       <c r="D7">
-        <v>1.016134526368743</v>
+        <v>1.007172414414493</v>
       </c>
       <c r="E7">
-        <v>1.001620601861524</v>
+        <v>0.9937621490391324</v>
       </c>
       <c r="F7">
-        <v>1.007690264076833</v>
+        <v>0.966678249021157</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044054711388499</v>
+        <v>1.039314197636842</v>
       </c>
       <c r="J7">
-        <v>1.01666328274377</v>
+        <v>1.006167648002553</v>
       </c>
       <c r="K7">
-        <v>1.026039107685185</v>
+        <v>1.017182066012599</v>
       </c>
       <c r="L7">
-        <v>1.011696512015516</v>
+        <v>1.003933420060911</v>
       </c>
       <c r="M7">
-        <v>1.017693781475879</v>
+        <v>0.9771930578198564</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9847227651237125</v>
+        <v>0.9754730799939746</v>
       </c>
       <c r="D8">
-        <v>1.00643047875108</v>
+        <v>0.998793654806406</v>
       </c>
       <c r="E8">
-        <v>0.9908166448678422</v>
+        <v>0.9846263922545133</v>
       </c>
       <c r="F8">
-        <v>0.9951713036376034</v>
+        <v>0.9518565250269613</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.039424212822745</v>
+        <v>1.035736045040173</v>
       </c>
       <c r="J8">
-        <v>1.006783603640754</v>
+        <v>0.9978174945517048</v>
       </c>
       <c r="K8">
-        <v>1.01752404400287</v>
+        <v>1.009989991637913</v>
       </c>
       <c r="L8">
-        <v>1.002122464426897</v>
+        <v>0.9960187159967208</v>
       </c>
       <c r="M8">
-        <v>1.006417082416437</v>
+        <v>0.9637306887451714</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9605680355864082</v>
+        <v>0.9544110502696576</v>
       </c>
       <c r="D9">
-        <v>0.9876691553036184</v>
+        <v>0.9826844120177501</v>
       </c>
       <c r="E9">
-        <v>0.9699040125953126</v>
+        <v>0.9671039962877428</v>
       </c>
       <c r="F9">
-        <v>0.9709989126407992</v>
+        <v>0.923155671017285</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.030320279480426</v>
+        <v>1.028699589439272</v>
       </c>
       <c r="J9">
-        <v>0.9875944286546284</v>
+        <v>0.9816831613374565</v>
       </c>
       <c r="K9">
-        <v>1.000965510982602</v>
+        <v>0.9960648120596889</v>
       </c>
       <c r="L9">
-        <v>0.9835050087511834</v>
+        <v>0.9807543319818171</v>
       </c>
       <c r="M9">
-        <v>0.9845807156432279</v>
+        <v>0.9376320182013075</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9425956307449213</v>
+        <v>0.9388660295611344</v>
       </c>
       <c r="D10">
-        <v>0.9737502208052978</v>
+        <v>0.9708208234239303</v>
       </c>
       <c r="E10">
-        <v>0.9543647147827129</v>
+        <v>0.9542243919807374</v>
       </c>
       <c r="F10">
-        <v>0.9530725579955334</v>
+        <v>0.9017757074623048</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023460630071605</v>
+        <v>1.02340993556493</v>
       </c>
       <c r="J10">
-        <v>0.973287644813401</v>
+        <v>0.9697342234832379</v>
       </c>
       <c r="K10">
-        <v>0.9886101682336457</v>
+        <v>0.9857376897374759</v>
       </c>
       <c r="L10">
-        <v>0.9696098914864322</v>
+        <v>0.9694724324205232</v>
       </c>
       <c r="M10">
-        <v>0.9683441473302564</v>
+        <v>0.9181779420877753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9342523385004087</v>
+        <v>0.9316896383174941</v>
       </c>
       <c r="D11">
-        <v>0.9673030574649224</v>
+        <v>0.9653539961953606</v>
       </c>
       <c r="E11">
-        <v>0.9471592483328494</v>
+        <v>0.9482941098288535</v>
       </c>
       <c r="F11">
-        <v>0.9447667776628382</v>
+        <v>0.8918350605619398</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020257773013645</v>
+        <v>1.020946708290511</v>
       </c>
       <c r="J11">
-        <v>0.9666413442120813</v>
+        <v>0.9642087578880468</v>
       </c>
       <c r="K11">
-        <v>0.9828691049239687</v>
+        <v>0.9809602602519299</v>
       </c>
       <c r="L11">
-        <v>0.9631515466959751</v>
+        <v>0.9642617549370422</v>
       </c>
       <c r="M11">
-        <v>0.9608113069586498</v>
+        <v>0.9091322628944489</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9310561551809045</v>
+        <v>0.928947558335749</v>
       </c>
       <c r="D12">
-        <v>0.9648359116648927</v>
+        <v>0.9632670302382911</v>
       </c>
       <c r="E12">
-        <v>0.9444005557777709</v>
+        <v>0.9460308156932328</v>
       </c>
       <c r="F12">
-        <v>0.9415876013296198</v>
+        <v>0.8880235251971792</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.019028255364166</v>
+        <v>1.020002489478982</v>
       </c>
       <c r="J12">
-        <v>0.964094784061941</v>
+        <v>0.9620961469043807</v>
       </c>
       <c r="K12">
-        <v>0.9806692991001577</v>
+        <v>0.9791335157691937</v>
       </c>
       <c r="L12">
-        <v>0.9606765329326949</v>
+        <v>0.9622705503625415</v>
       </c>
       <c r="M12">
-        <v>0.957926506908242</v>
+        <v>0.9056640945038964</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9317463795644939</v>
+        <v>0.9295393794629543</v>
       </c>
       <c r="D13">
-        <v>0.9653685696064317</v>
+        <v>0.9637173663509481</v>
       </c>
       <c r="E13">
-        <v>0.9449962238740166</v>
+        <v>0.9465191759605198</v>
       </c>
       <c r="F13">
-        <v>0.9422740304019959</v>
+        <v>0.888846812236471</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019293884182646</v>
+        <v>1.020206413007407</v>
       </c>
       <c r="J13">
-        <v>0.9646447372972844</v>
+        <v>0.9625521702640898</v>
       </c>
       <c r="K13">
-        <v>0.9811443697471339</v>
+        <v>0.9795278361461882</v>
       </c>
       <c r="L13">
-        <v>0.9612110557467602</v>
+        <v>0.9627003180976225</v>
       </c>
       <c r="M13">
-        <v>0.9585494422212975</v>
+        <v>0.906413199955231</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9339902065567053</v>
+        <v>0.9314645993314272</v>
       </c>
       <c r="D14">
-        <v>0.9671006599279492</v>
+        <v>0.9651826808496474</v>
       </c>
       <c r="E14">
-        <v>0.9469329619885656</v>
+        <v>0.9481083086832304</v>
       </c>
       <c r="F14">
-        <v>0.9445059859222573</v>
+        <v>0.8915225378595903</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020156985496471</v>
+        <v>1.020869277600852</v>
       </c>
       <c r="J14">
-        <v>0.9664324984025974</v>
+        <v>0.9640354056060336</v>
       </c>
       <c r="K14">
-        <v>0.9826886979376782</v>
+        <v>0.9808103668421254</v>
       </c>
       <c r="L14">
-        <v>0.9629485777920667</v>
+        <v>0.9640983429140556</v>
       </c>
       <c r="M14">
-        <v>0.9605746930068416</v>
+        <v>0.9088478880895273</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9353594015959291</v>
+        <v>0.9326403397728752</v>
       </c>
       <c r="D15">
-        <v>0.9681579547179294</v>
+        <v>0.9660778154691845</v>
       </c>
       <c r="E15">
-        <v>0.9481149918608227</v>
+        <v>0.949079156031048</v>
       </c>
       <c r="F15">
-        <v>0.9458682886496048</v>
+        <v>0.8931547931094465</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020683327523775</v>
+        <v>1.021273701128451</v>
       </c>
       <c r="J15">
-        <v>0.9675233463495454</v>
+        <v>0.9649410490494554</v>
       </c>
       <c r="K15">
-        <v>0.9836310005873201</v>
+        <v>0.9815934495924535</v>
       </c>
       <c r="L15">
-        <v>0.9640087105298606</v>
+        <v>0.9649520986435769</v>
       </c>
       <c r="M15">
-        <v>0.9618106380646544</v>
+        <v>0.9103331417880521</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.943136495131476</v>
+        <v>0.939332151513269</v>
       </c>
       <c r="D16">
-        <v>0.9741685001914886</v>
+        <v>0.9711761421716227</v>
       </c>
       <c r="E16">
-        <v>0.9548320164842465</v>
+        <v>0.954609921162426</v>
       </c>
       <c r="F16">
-        <v>0.9536113376509309</v>
+        <v>0.9024197205770383</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023667899199991</v>
+        <v>1.023569504864329</v>
       </c>
       <c r="J16">
-        <v>0.9737184222214991</v>
+        <v>0.9700929286269189</v>
       </c>
       <c r="K16">
-        <v>0.9889822545353913</v>
+        <v>0.986047805942694</v>
       </c>
       <c r="L16">
-        <v>0.9700284211815231</v>
+        <v>0.9698108395925066</v>
       </c>
       <c r="M16">
-        <v>0.9688325849425258</v>
+        <v>0.9187639861110153</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9478564338558171</v>
+        <v>0.9434043963247791</v>
       </c>
       <c r="D17">
-        <v>0.9778203320317065</v>
+        <v>0.9742815201631959</v>
       </c>
       <c r="E17">
-        <v>0.958910957884851</v>
+        <v>0.957979845956818</v>
       </c>
       <c r="F17">
-        <v>0.9583148995383296</v>
+        <v>0.9080379844176357</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025474638391617</v>
+        <v>1.024961218437649</v>
       </c>
       <c r="J17">
-        <v>0.9774771705145595</v>
+        <v>0.9732257105771914</v>
       </c>
       <c r="K17">
-        <v>0.9922287579193456</v>
+        <v>0.9887560323637034</v>
       </c>
       <c r="L17">
-        <v>0.9736799385196149</v>
+        <v>0.97276706319668</v>
       </c>
       <c r="M17">
-        <v>0.9730955491175146</v>
+        <v>0.9238765101591857</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9505563509877576</v>
+        <v>0.9457374429199594</v>
       </c>
       <c r="D18">
-        <v>0.9799105621671729</v>
+        <v>0.9760615377620743</v>
       </c>
       <c r="E18">
-        <v>0.9612449517331813</v>
+        <v>0.9599119508313394</v>
       </c>
       <c r="F18">
-        <v>0.9610069255492909</v>
+        <v>0.9112504173953963</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.026506417786</v>
+        <v>1.02575656753098</v>
       </c>
       <c r="J18">
-        <v>0.9796268127861608</v>
+        <v>0.9750196683638788</v>
       </c>
       <c r="K18">
-        <v>0.9940853162010832</v>
+        <v>0.9903066828084185</v>
       </c>
       <c r="L18">
-        <v>0.975767949329797</v>
+        <v>0.9744604965847203</v>
       </c>
       <c r="M18">
-        <v>0.9755344783278754</v>
+        <v>0.9267997044037143</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9514682837024278</v>
+        <v>0.9465260476365077</v>
       </c>
       <c r="D19">
-        <v>0.9806167717640649</v>
+        <v>0.9766633531256008</v>
       </c>
       <c r="E19">
-        <v>0.9620334056482481</v>
+        <v>0.9605652652139434</v>
       </c>
       <c r="F19">
-        <v>0.9619164378825296</v>
+        <v>0.9123352580325561</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026854617833265</v>
+        <v>1.026025066502505</v>
       </c>
       <c r="J19">
-        <v>0.980352800203518</v>
+        <v>0.9756259063424348</v>
       </c>
       <c r="K19">
-        <v>0.9947122971702101</v>
+        <v>0.9908306629696598</v>
       </c>
       <c r="L19">
-        <v>0.9764730698459702</v>
+        <v>0.9750328598717318</v>
       </c>
       <c r="M19">
-        <v>0.9763583232320812</v>
+        <v>0.9277868507975803</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.947355609632038</v>
+        <v>0.942971913132388</v>
       </c>
       <c r="D20">
-        <v>0.9774327045228413</v>
+        <v>0.9739516242524249</v>
       </c>
       <c r="E20">
-        <v>0.9584780690920411</v>
+        <v>0.9576218003749118</v>
       </c>
       <c r="F20">
-        <v>0.9578156577734627</v>
+        <v>0.9074419877153305</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025283106243928</v>
+        <v>1.024813620225983</v>
       </c>
       <c r="J20">
-        <v>0.9770783819816651</v>
+        <v>0.9728930898219381</v>
       </c>
       <c r="K20">
-        <v>0.9918843293531432</v>
+        <v>0.9884685072504448</v>
       </c>
       <c r="L20">
-        <v>0.9732925584865165</v>
+        <v>0.9724531273432551</v>
       </c>
       <c r="M20">
-        <v>0.9726431692899402</v>
+        <v>0.9233341683549828</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9333322537068666</v>
+        <v>0.9308998675621392</v>
       </c>
       <c r="D21">
-        <v>0.9665926853211103</v>
+        <v>0.9647527995120695</v>
       </c>
       <c r="E21">
-        <v>0.9463650089435567</v>
+        <v>0.9476420872923071</v>
       </c>
       <c r="F21">
-        <v>0.9438514400472545</v>
+        <v>0.8907380445706308</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019903968048631</v>
+        <v>1.020674918576353</v>
       </c>
       <c r="J21">
-        <v>0.9659082874896332</v>
+        <v>0.9636003593445088</v>
       </c>
       <c r="K21">
-        <v>0.982235868478668</v>
+        <v>0.9804341914987371</v>
       </c>
       <c r="L21">
-        <v>0.9624391107027443</v>
+        <v>0.96368826001652</v>
       </c>
       <c r="M21">
-        <v>0.9599808059092666</v>
+        <v>0.9081340559931372</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9239446787053252</v>
+        <v>0.9228609938641422</v>
       </c>
       <c r="D22">
-        <v>0.9593521179556883</v>
+        <v>0.9586386150043581</v>
       </c>
       <c r="E22">
-        <v>0.9382659473594892</v>
+        <v>0.9410123044654357</v>
       </c>
       <c r="F22">
-        <v>0.9345191330939323</v>
+        <v>0.879534983739967</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.016288128508736</v>
+        <v>1.017901214494372</v>
       </c>
       <c r="J22">
-        <v>0.9584281570939893</v>
+        <v>0.9574043510064797</v>
       </c>
       <c r="K22">
-        <v>0.9757742390299052</v>
+        <v>0.9750765256420226</v>
       </c>
       <c r="L22">
-        <v>0.9551682747866669</v>
+        <v>0.9578504562291258</v>
       </c>
       <c r="M22">
-        <v>0.9515098302743726</v>
+        <v>0.897941026262173</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9289803809384376</v>
+        <v>0.9271688547354766</v>
       </c>
       <c r="D23">
-        <v>0.9632344353510893</v>
+        <v>0.9619138675480596</v>
       </c>
       <c r="E23">
-        <v>0.9426094171262889</v>
+        <v>0.9445634761581866</v>
       </c>
       <c r="F23">
-        <v>0.9395236465146579</v>
+        <v>0.8855469718523808</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.018229050108231</v>
+        <v>1.019389172732607</v>
       </c>
       <c r="J23">
-        <v>0.9624408125996138</v>
+        <v>0.9607253854083989</v>
       </c>
       <c r="K23">
-        <v>0.9792405311321088</v>
+        <v>0.9779482204168882</v>
       </c>
       <c r="L23">
-        <v>0.9590689015641515</v>
+        <v>0.9609788735044548</v>
       </c>
       <c r="M23">
-        <v>0.9560532501849182</v>
+        <v>0.9034107456578394</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9475820738295759</v>
+        <v>0.9431674634573117</v>
       </c>
       <c r="D24">
-        <v>0.9776079790900662</v>
+        <v>0.9741007862321408</v>
       </c>
       <c r="E24">
-        <v>0.9586738117554288</v>
+        <v>0.9577836887873189</v>
       </c>
       <c r="F24">
-        <v>0.9580414018240986</v>
+        <v>0.9077114914101583</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025369719192969</v>
+        <v>1.024880363985152</v>
       </c>
       <c r="J24">
-        <v>0.9772587087971562</v>
+        <v>0.973043489313884</v>
       </c>
       <c r="K24">
-        <v>0.9920400757323897</v>
+        <v>0.9885985166690988</v>
       </c>
       <c r="L24">
-        <v>0.9734677274857989</v>
+        <v>0.9725950763755952</v>
       </c>
       <c r="M24">
-        <v>0.9728477264859439</v>
+        <v>0.9235794100681916</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9671081209861582</v>
+        <v>0.9600953958105954</v>
       </c>
       <c r="D25">
-        <v>0.9927434836090663</v>
+        <v>0.9870288007859714</v>
       </c>
       <c r="E25">
-        <v>0.9755637100479797</v>
+        <v>0.971825016300111</v>
       </c>
       <c r="F25">
-        <v>0.977534461444131</v>
+        <v>0.9309283729847111</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032800129248395</v>
+        <v>1.030615264040101</v>
       </c>
       <c r="J25">
-        <v>0.9927954975335893</v>
+        <v>0.9860446034720944</v>
       </c>
       <c r="K25">
-        <v>1.005455501902972</v>
+        <v>0.9998318716245486</v>
       </c>
       <c r="L25">
-        <v>0.9885535951274047</v>
+        <v>0.9848770482833147</v>
       </c>
       <c r="M25">
-        <v>0.9904918335802021</v>
+        <v>0.9447027555456138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9725447688635456</v>
+        <v>1.000608816087183</v>
       </c>
       <c r="D2">
-        <v>0.9965522407309305</v>
+        <v>1.018623401269044</v>
       </c>
       <c r="E2">
-        <v>0.9821853630304114</v>
+        <v>1.01530630205016</v>
       </c>
       <c r="F2">
-        <v>0.9478811973744027</v>
+        <v>1.022356787571011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034768600081002</v>
+        <v>1.046912197950457</v>
       </c>
       <c r="J2">
-        <v>0.9955788616205481</v>
+        <v>1.022771332805609</v>
       </c>
       <c r="K2">
-        <v>1.008059818220243</v>
+        <v>1.029829239134636</v>
       </c>
       <c r="L2">
-        <v>0.9938985927644635</v>
+        <v>1.026556436078821</v>
       </c>
       <c r="M2">
-        <v>0.9601177713819125</v>
+        <v>1.033513201401633</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9810752865364114</v>
+        <v>1.005189039903262</v>
       </c>
       <c r="D3">
-        <v>1.003082691975359</v>
+        <v>1.021898445684316</v>
       </c>
       <c r="E3">
-        <v>0.9893006696787078</v>
+        <v>1.01916399062179</v>
       </c>
       <c r="F3">
-        <v>0.9594506003814179</v>
+        <v>1.026669593706995</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037575536979448</v>
+        <v>1.048193740922318</v>
       </c>
       <c r="J3">
-        <v>1.002095499127449</v>
+        <v>1.025539239110444</v>
       </c>
       <c r="K3">
-        <v>1.013676280554548</v>
+        <v>1.032258593948299</v>
       </c>
       <c r="L3">
-        <v>1.000072306032163</v>
+        <v>1.029557398761289</v>
       </c>
       <c r="M3">
-        <v>0.9706300279203071</v>
+        <v>1.036972235651554</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9863867917154727</v>
+        <v>1.008090916425971</v>
       </c>
       <c r="D4">
-        <v>1.007149904311145</v>
+        <v>1.023973736138488</v>
       </c>
       <c r="E4">
-        <v>0.9937375800104316</v>
+        <v>1.021613930115601</v>
       </c>
       <c r="F4">
-        <v>0.9666384989203705</v>
+        <v>1.029407679175174</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039304671130102</v>
+        <v>1.048991441238318</v>
       </c>
       <c r="J4">
-        <v>1.006145253642514</v>
+        <v>1.027289895962349</v>
       </c>
       <c r="K4">
-        <v>1.017162795468886</v>
+        <v>1.033791179609843</v>
       </c>
       <c r="L4">
-        <v>1.003912179210471</v>
+        <v>1.031458309100407</v>
       </c>
       <c r="M4">
-        <v>0.9771569730101046</v>
+        <v>1.039163676464471</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9885733955278705</v>
+        <v>1.009296588653662</v>
       </c>
       <c r="D5">
-        <v>1.008824356939482</v>
+        <v>1.024835995543286</v>
       </c>
       <c r="E5">
-        <v>0.9955655954624294</v>
+        <v>1.022633189276651</v>
       </c>
       <c r="F5">
-        <v>0.969594532390992</v>
+        <v>1.030546612029843</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040011962898579</v>
+        <v>1.049319398423776</v>
       </c>
       <c r="J5">
-        <v>1.007810517740365</v>
+        <v>1.028016503410205</v>
       </c>
       <c r="K5">
-        <v>1.018595475116799</v>
+        <v>1.034426310614392</v>
       </c>
       <c r="L5">
-        <v>1.005491884058362</v>
+        <v>1.032247965094262</v>
       </c>
       <c r="M5">
-        <v>0.9798401103318212</v>
+        <v>1.040074112305127</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9889379126184185</v>
+        <v>1.0094982039492</v>
       </c>
       <c r="D6">
-        <v>1.009103496962494</v>
+        <v>1.024980183794626</v>
       </c>
       <c r="E6">
-        <v>0.9958704167216106</v>
+        <v>1.02280371076201</v>
       </c>
       <c r="F6">
-        <v>0.9700871587135825</v>
+        <v>1.03073714305444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040129601884505</v>
+        <v>1.049374034541344</v>
       </c>
       <c r="J6">
-        <v>1.008088011580259</v>
+        <v>1.028137962898021</v>
       </c>
       <c r="K6">
-        <v>1.018834152537319</v>
+        <v>1.034532421520323</v>
       </c>
       <c r="L6">
-        <v>1.005755163584024</v>
+        <v>1.032380004174812</v>
       </c>
       <c r="M6">
-        <v>0.9802871926574311</v>
+        <v>1.040226352467645</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9864161870067117</v>
+        <v>1.008107082096728</v>
       </c>
       <c r="D7">
-        <v>1.007172414414493</v>
+        <v>1.023985297337524</v>
       </c>
       <c r="E7">
-        <v>0.9937621490391324</v>
+        <v>1.021627591047912</v>
       </c>
       <c r="F7">
-        <v>0.966678249021157</v>
+        <v>1.029422944868897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039314197636842</v>
+        <v>1.048995852278938</v>
       </c>
       <c r="J7">
-        <v>1.006167648002553</v>
+        <v>1.027299641359618</v>
       </c>
       <c r="K7">
-        <v>1.017182066012599</v>
+        <v>1.033799701953861</v>
       </c>
       <c r="L7">
-        <v>1.003933420060911</v>
+        <v>1.031468897401572</v>
       </c>
       <c r="M7">
-        <v>0.9771930578198564</v>
+        <v>1.039175883912173</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9754730799939746</v>
+        <v>1.002169853222521</v>
       </c>
       <c r="D8">
-        <v>0.998793654806406</v>
+        <v>1.019739497314584</v>
       </c>
       <c r="E8">
-        <v>0.9846263922545133</v>
+        <v>1.016619832747397</v>
       </c>
       <c r="F8">
-        <v>0.9518565250269613</v>
+        <v>1.023825476050531</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035736045040173</v>
+        <v>1.047351929090454</v>
       </c>
       <c r="J8">
-        <v>0.9978174945517048</v>
+        <v>1.02371529934494</v>
       </c>
       <c r="K8">
-        <v>1.009989991637913</v>
+        <v>1.030658561682404</v>
       </c>
       <c r="L8">
-        <v>0.9960187159967208</v>
+        <v>1.027579287216574</v>
       </c>
       <c r="M8">
-        <v>0.9637306887451714</v>
+        <v>1.034692104760128</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9544110502696576</v>
+        <v>0.9912090142584651</v>
       </c>
       <c r="D9">
-        <v>0.9826844120177501</v>
+        <v>1.011906893524331</v>
       </c>
       <c r="E9">
-        <v>0.9671039962877428</v>
+        <v>1.007423521798418</v>
       </c>
       <c r="F9">
-        <v>0.923155671017285</v>
+        <v>1.013538741726005</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.028699589439272</v>
+        <v>1.044206104598344</v>
       </c>
       <c r="J9">
-        <v>0.9816831613374565</v>
+        <v>1.017076070342511</v>
       </c>
       <c r="K9">
-        <v>0.9960648120596889</v>
+        <v>1.024809698981553</v>
       </c>
       <c r="L9">
-        <v>0.9807543319818171</v>
+        <v>1.020397294874814</v>
       </c>
       <c r="M9">
-        <v>0.9376320182013075</v>
+        <v>1.026415915898341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9388660295611344</v>
+        <v>0.9835290370184776</v>
       </c>
       <c r="D10">
-        <v>0.9708208234239303</v>
+        <v>1.006427056996326</v>
       </c>
       <c r="E10">
-        <v>0.9542243919807374</v>
+        <v>1.001016010013609</v>
       </c>
       <c r="F10">
-        <v>0.9017757074623048</v>
+        <v>1.00636581131784</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.02340993556493</v>
+        <v>1.041930345667492</v>
       </c>
       <c r="J10">
-        <v>0.9697342234832379</v>
+        <v>1.012411740470387</v>
       </c>
       <c r="K10">
-        <v>0.9857376897374759</v>
+        <v>1.020681230524055</v>
       </c>
       <c r="L10">
-        <v>0.9694724324205232</v>
+        <v>1.015366944284848</v>
       </c>
       <c r="M10">
-        <v>0.9181779420877753</v>
+        <v>1.020621072490546</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9316896383174941</v>
+        <v>0.9801060019190231</v>
       </c>
       <c r="D11">
-        <v>0.9653539961953606</v>
+        <v>1.003987652264218</v>
       </c>
       <c r="E11">
-        <v>0.9482941098288535</v>
+        <v>0.9981694535375583</v>
       </c>
       <c r="F11">
-        <v>0.8918350605619398</v>
+        <v>1.003177726417869</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020946708290511</v>
+        <v>1.040899864784786</v>
       </c>
       <c r="J11">
-        <v>0.9642087578880468</v>
+        <v>1.010330470200653</v>
       </c>
       <c r="K11">
-        <v>0.9809602602519299</v>
+        <v>1.018834757088916</v>
       </c>
       <c r="L11">
-        <v>0.9642617549370422</v>
+        <v>1.013125974047201</v>
       </c>
       <c r="M11">
-        <v>0.9091322628944489</v>
+        <v>1.018039963260949</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.928947558335749</v>
+        <v>0.9788190365616232</v>
       </c>
       <c r="D12">
-        <v>0.9632670302382911</v>
+        <v>1.003071050053124</v>
       </c>
       <c r="E12">
-        <v>0.9460308156932328</v>
+        <v>0.9971006987898552</v>
       </c>
       <c r="F12">
-        <v>0.8880235251971792</v>
+        <v>1.001980506447816</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.020002489478982</v>
+        <v>1.040510078402217</v>
       </c>
       <c r="J12">
-        <v>0.9620961469043807</v>
+        <v>1.009547673782146</v>
       </c>
       <c r="K12">
-        <v>0.9791335157691937</v>
+        <v>1.018139649157882</v>
       </c>
       <c r="L12">
-        <v>0.9622705503625415</v>
+        <v>1.012283656432073</v>
       </c>
       <c r="M12">
-        <v>0.9056640945038964</v>
+        <v>1.017069861189226</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9295393794629543</v>
+        <v>0.9790958104912638</v>
       </c>
       <c r="D13">
-        <v>0.9637173663509481</v>
+        <v>1.003268147718</v>
       </c>
       <c r="E13">
-        <v>0.9465191759605198</v>
+        <v>0.9973304768875102</v>
       </c>
       <c r="F13">
-        <v>0.888846812236471</v>
+        <v>1.002237914969113</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.020206413007407</v>
+        <v>1.040594010777865</v>
       </c>
       <c r="J13">
-        <v>0.9625521702640898</v>
+        <v>1.009716033995744</v>
       </c>
       <c r="K13">
-        <v>0.9795278361461882</v>
+        <v>1.018289177425435</v>
       </c>
       <c r="L13">
-        <v>0.9627003180976225</v>
+        <v>1.012464793590778</v>
       </c>
       <c r="M13">
-        <v>0.906413199955231</v>
+        <v>1.017278475018683</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9314645993314272</v>
+        <v>0.9799999421926023</v>
       </c>
       <c r="D14">
-        <v>0.9651826808496474</v>
+        <v>1.003912102780466</v>
       </c>
       <c r="E14">
-        <v>0.9481083086832304</v>
+        <v>0.9980813463988941</v>
       </c>
       <c r="F14">
-        <v>0.8915225378595903</v>
+        <v>1.003079033612747</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020869277600852</v>
+        <v>1.040867789632319</v>
       </c>
       <c r="J14">
-        <v>0.9640354056060336</v>
+        <v>1.010265965110633</v>
       </c>
       <c r="K14">
-        <v>0.9808103668421254</v>
+        <v>1.018777490320301</v>
       </c>
       <c r="L14">
-        <v>0.9640983429140556</v>
+        <v>1.013056553144758</v>
       </c>
       <c r="M14">
-        <v>0.9088478880895273</v>
+        <v>1.017960009506798</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9326403397728752</v>
+        <v>0.9805549277713984</v>
       </c>
       <c r="D15">
-        <v>0.9660778154691845</v>
+        <v>1.004307458250088</v>
       </c>
       <c r="E15">
-        <v>0.949079156031048</v>
+        <v>0.9985424506741829</v>
       </c>
       <c r="F15">
-        <v>0.8931547931094465</v>
+        <v>1.003595527716426</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.021273701128451</v>
+        <v>1.041035535841654</v>
       </c>
       <c r="J15">
-        <v>0.9649410490494554</v>
+        <v>1.010603493281133</v>
       </c>
       <c r="K15">
-        <v>0.9815934495924535</v>
+        <v>1.01907711818604</v>
       </c>
       <c r="L15">
-        <v>0.9649520986435769</v>
+        <v>1.013419825888452</v>
       </c>
       <c r="M15">
-        <v>0.9103331417880521</v>
+        <v>1.018378402236787</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.939332151513269</v>
+        <v>0.9837540868053291</v>
       </c>
       <c r="D16">
-        <v>0.9711761421716227</v>
+        <v>1.006587507782718</v>
       </c>
       <c r="E16">
-        <v>0.954609921162426</v>
+        <v>1.001203358862645</v>
       </c>
       <c r="F16">
-        <v>0.9024197205770383</v>
+        <v>1.006575606064654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.023569504864329</v>
+        <v>1.041997764959788</v>
       </c>
       <c r="J16">
-        <v>0.9700929286269189</v>
+        <v>1.012548530845512</v>
       </c>
       <c r="K16">
-        <v>0.986047805942694</v>
+        <v>1.020802501408703</v>
       </c>
       <c r="L16">
-        <v>0.9698108395925066</v>
+        <v>1.015514306262929</v>
       </c>
       <c r="M16">
-        <v>0.9187639861110153</v>
+        <v>1.020790810329091</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9434043963247791</v>
+        <v>0.9857341417329645</v>
       </c>
       <c r="D17">
-        <v>0.9742815201631959</v>
+        <v>1.007999554664429</v>
       </c>
       <c r="E17">
-        <v>0.957979845956818</v>
+        <v>1.002852779157828</v>
       </c>
       <c r="F17">
-        <v>0.9080379844176357</v>
+        <v>1.008422468967094</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.024961218437649</v>
+        <v>1.042589110571222</v>
       </c>
       <c r="J17">
-        <v>0.9732257105771914</v>
+        <v>1.013751793730838</v>
       </c>
       <c r="K17">
-        <v>0.9887560323637034</v>
+        <v>1.021868761609236</v>
       </c>
       <c r="L17">
-        <v>0.97276706319668</v>
+        <v>1.01681097303206</v>
       </c>
       <c r="M17">
-        <v>0.9238765101591857</v>
+        <v>1.022284415989678</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9457374429199594</v>
+        <v>0.9868797216729911</v>
       </c>
       <c r="D18">
-        <v>0.9760615377620743</v>
+        <v>1.008816786893086</v>
       </c>
       <c r="E18">
-        <v>0.9599119508313394</v>
+        <v>1.003807947203053</v>
       </c>
       <c r="F18">
-        <v>0.9112504173953963</v>
+        <v>1.009491834086662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.02575656753098</v>
+        <v>1.042929702401568</v>
       </c>
       <c r="J18">
-        <v>0.9750196683638788</v>
+        <v>1.014447727876692</v>
       </c>
       <c r="K18">
-        <v>0.9903066828084185</v>
+        <v>1.022485047009511</v>
       </c>
       <c r="L18">
-        <v>0.9744604965847203</v>
+        <v>1.017561272660194</v>
       </c>
       <c r="M18">
-        <v>0.9267997044037143</v>
+        <v>1.023148713101887</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9465260476365077</v>
+        <v>0.9872687730197898</v>
       </c>
       <c r="D19">
-        <v>0.9766633531256008</v>
+        <v>1.009094372383224</v>
       </c>
       <c r="E19">
-        <v>0.9605652652139434</v>
+        <v>1.004132479879458</v>
       </c>
       <c r="F19">
-        <v>0.9123352580325561</v>
+        <v>1.009855143459296</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.026025066502505</v>
+        <v>1.043045108257805</v>
       </c>
       <c r="J19">
-        <v>0.9756259063424348</v>
+        <v>1.014684034872629</v>
       </c>
       <c r="K19">
-        <v>0.9908306629696598</v>
+        <v>1.022694238661144</v>
       </c>
       <c r="L19">
-        <v>0.9750328598717318</v>
+        <v>1.017816097882031</v>
       </c>
       <c r="M19">
-        <v>0.9277868507975803</v>
+        <v>1.023442262477927</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.942971913132388</v>
+        <v>0.985522673846571</v>
       </c>
       <c r="D20">
-        <v>0.9739516242524249</v>
+        <v>1.007848719884793</v>
       </c>
       <c r="E20">
-        <v>0.9576218003749118</v>
+        <v>1.002676530934902</v>
       </c>
       <c r="F20">
-        <v>0.9074419877153305</v>
+        <v>1.008225137756658</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.024813620225983</v>
+        <v>1.04252611441107</v>
       </c>
       <c r="J20">
-        <v>0.9728930898219381</v>
+        <v>1.013623309453139</v>
       </c>
       <c r="K20">
-        <v>0.9884685072504448</v>
+        <v>1.021754948848117</v>
       </c>
       <c r="L20">
-        <v>0.9724531273432551</v>
+        <v>1.016672479478883</v>
       </c>
       <c r="M20">
-        <v>0.9233341683549828</v>
+        <v>1.022124883635198</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9308998675621392</v>
+        <v>0.9797341328209593</v>
       </c>
       <c r="D21">
-        <v>0.9647527995120695</v>
+        <v>1.003722768010475</v>
       </c>
       <c r="E21">
-        <v>0.9476420872923071</v>
+        <v>0.9978605541558193</v>
       </c>
       <c r="F21">
-        <v>0.8907380445706308</v>
+        <v>1.00283171034329</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.020674918576353</v>
+        <v>1.040787364463272</v>
       </c>
       <c r="J21">
-        <v>0.9636003593445088</v>
+        <v>1.010104296345807</v>
       </c>
       <c r="K21">
-        <v>0.9804341914987371</v>
+        <v>1.018633952991084</v>
       </c>
       <c r="L21">
-        <v>0.96368826001652</v>
+        <v>1.012882572673201</v>
       </c>
       <c r="M21">
-        <v>0.9081340559931372</v>
+        <v>1.017759632965968</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9228609938641422</v>
+        <v>0.9760045196613327</v>
       </c>
       <c r="D22">
-        <v>0.9586386150043581</v>
+        <v>1.001067606575452</v>
       </c>
       <c r="E22">
-        <v>0.9410123044654357</v>
+        <v>0.9947661803856543</v>
       </c>
       <c r="F22">
-        <v>0.879534983739967</v>
+        <v>0.9993649274647739</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.017901214494372</v>
+        <v>1.039653391358665</v>
       </c>
       <c r="J22">
-        <v>0.9574043510064797</v>
+        <v>1.007835259941346</v>
       </c>
       <c r="K22">
-        <v>0.9750765256420226</v>
+        <v>1.016617943597794</v>
       </c>
       <c r="L22">
-        <v>0.9578504562291258</v>
+        <v>1.010442038204723</v>
       </c>
       <c r="M22">
-        <v>0.897941026262173</v>
+        <v>1.014948975772901</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9271688547354766</v>
+        <v>0.9779904985915227</v>
       </c>
       <c r="D23">
-        <v>0.9619138675480596</v>
+        <v>1.002481114795973</v>
       </c>
       <c r="E23">
-        <v>0.9445634761581866</v>
+        <v>0.9964130665001217</v>
       </c>
       <c r="F23">
-        <v>0.8855469718523808</v>
+        <v>1.001210151864734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.019389172732607</v>
+        <v>1.040258482946658</v>
       </c>
       <c r="J23">
-        <v>0.9607253854083989</v>
+        <v>1.009043638989577</v>
       </c>
       <c r="K23">
-        <v>0.9779482204168882</v>
+        <v>1.017691904054573</v>
       </c>
       <c r="L23">
-        <v>0.9609788735044548</v>
+        <v>1.011741449978324</v>
       </c>
       <c r="M23">
-        <v>0.9034107456578394</v>
+        <v>1.016445416843648</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9431674634573117</v>
+        <v>0.9856182559227237</v>
       </c>
       <c r="D24">
-        <v>0.9741007862321408</v>
+        <v>1.007916895342954</v>
       </c>
       <c r="E24">
-        <v>0.9577836887873189</v>
+        <v>1.002756191234264</v>
       </c>
       <c r="F24">
-        <v>0.9077114914101583</v>
+        <v>1.008314327534984</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.024880363985152</v>
+        <v>1.042554593027084</v>
       </c>
       <c r="J24">
-        <v>0.973043489313884</v>
+        <v>1.013681384193391</v>
       </c>
       <c r="K24">
-        <v>0.9885985166690988</v>
+        <v>1.021806393354342</v>
       </c>
       <c r="L24">
-        <v>0.9725950763755952</v>
+        <v>1.016735077335199</v>
       </c>
       <c r="M24">
-        <v>0.9235794100681916</v>
+        <v>1.022196990714701</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9600953958105954</v>
+        <v>0.9941054531235064</v>
       </c>
       <c r="D25">
-        <v>0.9870288007859714</v>
+        <v>1.013975591521452</v>
       </c>
       <c r="E25">
-        <v>0.971825016300111</v>
+        <v>1.009847699117854</v>
       </c>
       <c r="F25">
-        <v>0.9309283729847111</v>
+        <v>1.016251291242112</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.030615264040101</v>
+        <v>1.04504998407726</v>
       </c>
       <c r="J25">
-        <v>0.9860446034720944</v>
+        <v>1.018832833818249</v>
       </c>
       <c r="K25">
-        <v>0.9998318716245486</v>
+        <v>1.026360760250961</v>
       </c>
       <c r="L25">
-        <v>0.9848770482833147</v>
+        <v>1.022295041759939</v>
       </c>
       <c r="M25">
-        <v>0.9447027555456138</v>
+        <v>1.028602458282559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000608816087183</v>
+        <v>1.031151043873883</v>
       </c>
       <c r="D2">
-        <v>1.018623401269044</v>
+        <v>1.033794005858964</v>
       </c>
       <c r="E2">
-        <v>1.01530630205016</v>
+        <v>1.04004754849501</v>
       </c>
       <c r="F2">
-        <v>1.022356787571011</v>
+        <v>1.049295746533633</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046912197950457</v>
+        <v>1.034252190235561</v>
       </c>
       <c r="J2">
-        <v>1.022771332805609</v>
+        <v>1.036288353266912</v>
       </c>
       <c r="K2">
-        <v>1.029829239134636</v>
+        <v>1.036595331243573</v>
       </c>
       <c r="L2">
-        <v>1.026556436078821</v>
+        <v>1.042831005245076</v>
       </c>
       <c r="M2">
-        <v>1.033513201401633</v>
+        <v>1.052053201275855</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.005189039903262</v>
+        <v>1.032114475006056</v>
       </c>
       <c r="D3">
-        <v>1.021898445684316</v>
+        <v>1.034486947339885</v>
       </c>
       <c r="E3">
-        <v>1.01916399062179</v>
+        <v>1.040911172603168</v>
       </c>
       <c r="F3">
-        <v>1.026669593706995</v>
+        <v>1.050263392983344</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048193740922318</v>
+        <v>1.034434255854914</v>
       </c>
       <c r="J3">
-        <v>1.025539239110444</v>
+        <v>1.036893467496079</v>
       </c>
       <c r="K3">
-        <v>1.032258593948299</v>
+        <v>1.037097636706108</v>
       </c>
       <c r="L3">
-        <v>1.029557398761289</v>
+        <v>1.043504832478979</v>
       </c>
       <c r="M3">
-        <v>1.036972235651554</v>
+        <v>1.052832663760756</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008090916425971</v>
+        <v>1.03273813800451</v>
       </c>
       <c r="D4">
-        <v>1.023973736138488</v>
+        <v>1.0349351517338</v>
       </c>
       <c r="E4">
-        <v>1.021613930115601</v>
+        <v>1.041470595795955</v>
       </c>
       <c r="F4">
-        <v>1.029407679175174</v>
+        <v>1.050890145098847</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048991441238318</v>
+        <v>1.034550333668626</v>
       </c>
       <c r="J4">
-        <v>1.027289895962349</v>
+        <v>1.037284676409204</v>
       </c>
       <c r="K4">
-        <v>1.033791179609843</v>
+        <v>1.037421812309858</v>
       </c>
       <c r="L4">
-        <v>1.031458309100407</v>
+        <v>1.043940804187239</v>
       </c>
       <c r="M4">
-        <v>1.039163676464471</v>
+        <v>1.05333702831738</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009296588653662</v>
+        <v>1.033000387040909</v>
       </c>
       <c r="D5">
-        <v>1.024835995543286</v>
+        <v>1.035123533593508</v>
       </c>
       <c r="E5">
-        <v>1.022633189276651</v>
+        <v>1.041705919885412</v>
       </c>
       <c r="F5">
-        <v>1.030546612029843</v>
+        <v>1.051153778930654</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049319398423776</v>
+        <v>1.03459871775174</v>
       </c>
       <c r="J5">
-        <v>1.028016503410205</v>
+        <v>1.037449058230777</v>
       </c>
       <c r="K5">
-        <v>1.034426310614392</v>
+        <v>1.037557891334787</v>
       </c>
       <c r="L5">
-        <v>1.032247965094262</v>
+        <v>1.04412407623866</v>
       </c>
       <c r="M5">
-        <v>1.040074112305127</v>
+        <v>1.053549062128902</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.0094982039492</v>
+        <v>1.03304442336831</v>
       </c>
       <c r="D6">
-        <v>1.024980183794626</v>
+        <v>1.035155161159996</v>
       </c>
       <c r="E6">
-        <v>1.02280371076201</v>
+        <v>1.041745440161006</v>
       </c>
       <c r="F6">
-        <v>1.03073714305444</v>
+        <v>1.051198052809794</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049374034541344</v>
+        <v>1.03460681729514</v>
       </c>
       <c r="J6">
-        <v>1.028137962898021</v>
+        <v>1.037476653803436</v>
       </c>
       <c r="K6">
-        <v>1.034532421520323</v>
+        <v>1.037580727586689</v>
       </c>
       <c r="L6">
-        <v>1.032380004174812</v>
+        <v>1.044154847780878</v>
       </c>
       <c r="M6">
-        <v>1.040226352467645</v>
+        <v>1.053584663445432</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008107082096728</v>
+        <v>1.032741641949849</v>
       </c>
       <c r="D7">
-        <v>1.023985297337524</v>
+        <v>1.034937669073152</v>
       </c>
       <c r="E7">
-        <v>1.021627591047912</v>
+        <v>1.041473739649249</v>
       </c>
       <c r="F7">
-        <v>1.029422944868897</v>
+        <v>1.05089366720999</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048995852278938</v>
+        <v>1.034550981810741</v>
       </c>
       <c r="J7">
-        <v>1.027299641359618</v>
+        <v>1.037286873212081</v>
       </c>
       <c r="K7">
-        <v>1.033799701953861</v>
+        <v>1.03742363140886</v>
       </c>
       <c r="L7">
-        <v>1.031468897401572</v>
+        <v>1.043943253119677</v>
       </c>
       <c r="M7">
-        <v>1.039175883912173</v>
+        <v>1.053339861529049</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002169853222521</v>
+        <v>1.031476585899872</v>
       </c>
       <c r="D8">
-        <v>1.019739497314584</v>
+        <v>1.034028224116637</v>
       </c>
       <c r="E8">
-        <v>1.016619832747397</v>
+        <v>1.040339289207547</v>
       </c>
       <c r="F8">
-        <v>1.023825476050531</v>
+        <v>1.049622638038526</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047351929090454</v>
+        <v>1.034314078140005</v>
       </c>
       <c r="J8">
-        <v>1.02371529934494</v>
+        <v>1.036492924407443</v>
       </c>
       <c r="K8">
-        <v>1.030658561682404</v>
+        <v>1.036765263046733</v>
       </c>
       <c r="L8">
-        <v>1.027579287216574</v>
+        <v>1.043058735917389</v>
       </c>
       <c r="M8">
-        <v>1.034692104760128</v>
+        <v>1.052316623569898</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9912090142584651</v>
+        <v>1.029249411610389</v>
       </c>
       <c r="D9">
-        <v>1.011906893524331</v>
+        <v>1.032424384396941</v>
       </c>
       <c r="E9">
-        <v>1.007423521798418</v>
+        <v>1.03834489629044</v>
       </c>
       <c r="F9">
-        <v>1.013538741726005</v>
+        <v>1.047387725712584</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044206104598344</v>
+        <v>1.033883396907239</v>
       </c>
       <c r="J9">
-        <v>1.017076070342511</v>
+        <v>1.035091317150397</v>
       </c>
       <c r="K9">
-        <v>1.024809698981553</v>
+        <v>1.035598670581238</v>
       </c>
       <c r="L9">
-        <v>1.020397294874814</v>
+        <v>1.041499843641414</v>
       </c>
       <c r="M9">
-        <v>1.026415915898341</v>
+        <v>1.05051359734007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9835290370184776</v>
+        <v>1.027766029879014</v>
       </c>
       <c r="D10">
-        <v>1.006427056996326</v>
+        <v>1.031354375255896</v>
       </c>
       <c r="E10">
-        <v>1.001016010013609</v>
+        <v>1.037018500751338</v>
       </c>
       <c r="F10">
-        <v>1.00636581131784</v>
+        <v>1.045901084762932</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041930345667492</v>
+        <v>1.033587421932293</v>
       </c>
       <c r="J10">
-        <v>1.012411740470387</v>
+        <v>1.034155237735369</v>
       </c>
       <c r="K10">
-        <v>1.020681230524055</v>
+        <v>1.034816654629639</v>
       </c>
       <c r="L10">
-        <v>1.015366944284848</v>
+        <v>1.040460464285104</v>
       </c>
       <c r="M10">
-        <v>1.020621072490546</v>
+        <v>1.049311676951598</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9801060019190231</v>
+        <v>1.027124050529029</v>
       </c>
       <c r="D11">
-        <v>1.003987652264218</v>
+        <v>1.030890880147991</v>
       </c>
       <c r="E11">
-        <v>0.9981694535375583</v>
+        <v>1.03644493032455</v>
       </c>
       <c r="F11">
-        <v>1.003177726417869</v>
+        <v>1.045258150174917</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040899864784786</v>
+        <v>1.033457169325331</v>
       </c>
       <c r="J11">
-        <v>1.010330470200653</v>
+        <v>1.033749518414146</v>
       </c>
       <c r="K11">
-        <v>1.018834757088916</v>
+        <v>1.034477027976454</v>
       </c>
       <c r="L11">
-        <v>1.013125974047201</v>
+        <v>1.040010385232444</v>
       </c>
       <c r="M11">
-        <v>1.018039963260949</v>
+        <v>1.048791268166728</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9788190365616232</v>
+        <v>1.026885641751821</v>
       </c>
       <c r="D12">
-        <v>1.003071050053124</v>
+        <v>1.030718692546047</v>
       </c>
       <c r="E12">
-        <v>0.9971006987898552</v>
+        <v>1.036231997184044</v>
       </c>
       <c r="F12">
-        <v>1.001980506447816</v>
+        <v>1.045019455560543</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040510078402217</v>
+        <v>1.033408473775168</v>
       </c>
       <c r="J12">
-        <v>1.009547673782146</v>
+        <v>1.033598758291029</v>
       </c>
       <c r="K12">
-        <v>1.018139649157882</v>
+        <v>1.034350724893693</v>
       </c>
       <c r="L12">
-        <v>1.012283656432073</v>
+        <v>1.039843203580029</v>
       </c>
       <c r="M12">
-        <v>1.017069861189226</v>
+        <v>1.048597970775457</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9790958104912638</v>
+        <v>1.026936778928382</v>
       </c>
       <c r="D13">
-        <v>1.003268147718</v>
+        <v>1.030755628476741</v>
       </c>
       <c r="E13">
-        <v>0.9973304768875102</v>
+        <v>1.036277666777558</v>
       </c>
       <c r="F13">
-        <v>1.002237914969113</v>
+        <v>1.045070650921134</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040594010777865</v>
+        <v>1.033418933332629</v>
       </c>
       <c r="J13">
-        <v>1.009716033995744</v>
+        <v>1.033631099456528</v>
       </c>
       <c r="K13">
-        <v>1.018289177425435</v>
+        <v>1.034377824135134</v>
       </c>
       <c r="L13">
-        <v>1.012464793590778</v>
+        <v>1.039879064699609</v>
       </c>
       <c r="M13">
-        <v>1.017278475018683</v>
+        <v>1.04863943345258</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9799999421926023</v>
+        <v>1.02710434254227</v>
       </c>
       <c r="D14">
-        <v>1.003912102780466</v>
+        <v>1.030876647567339</v>
       </c>
       <c r="E14">
-        <v>0.9980813463988941</v>
+        <v>1.036427326822564</v>
       </c>
       <c r="F14">
-        <v>1.003079033612747</v>
+        <v>1.045238417150885</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040867789632319</v>
+        <v>1.033453150536684</v>
       </c>
       <c r="J14">
-        <v>1.010265965110633</v>
+        <v>1.03373705771189</v>
       </c>
       <c r="K14">
-        <v>1.018777490320301</v>
+        <v>1.034466590791644</v>
       </c>
       <c r="L14">
-        <v>1.013056553144758</v>
+        <v>1.0399965659857</v>
       </c>
       <c r="M14">
-        <v>1.017960009506798</v>
+        <v>1.048775290024033</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9805549277713984</v>
+        <v>1.027207590784213</v>
       </c>
       <c r="D15">
-        <v>1.004307458250088</v>
+        <v>1.030951208164099</v>
       </c>
       <c r="E15">
-        <v>0.9985424506741829</v>
+        <v>1.036519552780825</v>
       </c>
       <c r="F15">
-        <v>1.003595527716426</v>
+        <v>1.045341799385721</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041035535841654</v>
+        <v>1.03347419130394</v>
       </c>
       <c r="J15">
-        <v>1.010603493281133</v>
+        <v>1.033802334441454</v>
       </c>
       <c r="K15">
-        <v>1.01907711818604</v>
+        <v>1.034521262926581</v>
       </c>
       <c r="L15">
-        <v>1.013419825888452</v>
+        <v>1.040068962134274</v>
       </c>
       <c r="M15">
-        <v>1.018378402236787</v>
+        <v>1.04885899651364</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9837540868053291</v>
+        <v>1.027808643041824</v>
       </c>
       <c r="D16">
-        <v>1.006587507782718</v>
+        <v>1.031385132340677</v>
       </c>
       <c r="E16">
-        <v>1.001203358862645</v>
+        <v>1.03705658300056</v>
       </c>
       <c r="F16">
-        <v>1.006575606064654</v>
+        <v>1.045943770969697</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041997764959788</v>
+        <v>1.033596022311906</v>
       </c>
       <c r="J16">
-        <v>1.012548530845512</v>
+        <v>1.034182155826411</v>
       </c>
       <c r="K16">
-        <v>1.020802501408703</v>
+        <v>1.034839173359824</v>
       </c>
       <c r="L16">
-        <v>1.015514306262929</v>
+        <v>1.040490334184727</v>
       </c>
       <c r="M16">
-        <v>1.020790810329091</v>
+        <v>1.049346215499911</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9857341417329645</v>
+        <v>1.028185757317251</v>
       </c>
       <c r="D17">
-        <v>1.007999554664429</v>
+        <v>1.03165727580466</v>
       </c>
       <c r="E17">
-        <v>1.002852779157828</v>
+        <v>1.037393654175992</v>
       </c>
       <c r="F17">
-        <v>1.008422468967094</v>
+        <v>1.046321584336492</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042589110571222</v>
+        <v>1.033671883615792</v>
       </c>
       <c r="J17">
-        <v>1.013751793730838</v>
+        <v>1.034420303698185</v>
       </c>
       <c r="K17">
-        <v>1.021868761609236</v>
+        <v>1.035038320789926</v>
       </c>
       <c r="L17">
-        <v>1.01681097303206</v>
+        <v>1.040754644765972</v>
       </c>
       <c r="M17">
-        <v>1.022284415989678</v>
+        <v>1.049651844012913</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9868797216729911</v>
+        <v>1.028405753946774</v>
       </c>
       <c r="D18">
-        <v>1.008816786893086</v>
+        <v>1.031815995600804</v>
       </c>
       <c r="E18">
-        <v>1.003807947203053</v>
+        <v>1.037590336075822</v>
       </c>
       <c r="F18">
-        <v>1.009491834086662</v>
+        <v>1.04654203270274</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042929702401568</v>
+        <v>1.033715930200028</v>
       </c>
       <c r="J18">
-        <v>1.014447727876692</v>
+        <v>1.034559173566425</v>
       </c>
       <c r="K18">
-        <v>1.022485047009511</v>
+        <v>1.035154382742135</v>
       </c>
       <c r="L18">
-        <v>1.017561272660194</v>
+        <v>1.04090881057683</v>
       </c>
       <c r="M18">
-        <v>1.023148713101887</v>
+        <v>1.049830114846862</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9872687730197898</v>
+        <v>1.028480772563165</v>
       </c>
       <c r="D19">
-        <v>1.009094372383224</v>
+        <v>1.031870112047285</v>
       </c>
       <c r="E19">
-        <v>1.004132479879458</v>
+        <v>1.037657412035783</v>
       </c>
       <c r="F19">
-        <v>1.009855143459296</v>
+        <v>1.046617212793225</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043045108257805</v>
+        <v>1.033730914661037</v>
       </c>
       <c r="J19">
-        <v>1.014684034872629</v>
+        <v>1.034606518174163</v>
       </c>
       <c r="K19">
-        <v>1.022694238661144</v>
+        <v>1.035193940324487</v>
       </c>
       <c r="L19">
-        <v>1.017816097882031</v>
+        <v>1.040961376754447</v>
       </c>
       <c r="M19">
-        <v>1.023442262477927</v>
+        <v>1.049890901054757</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.985522673846571</v>
+        <v>1.028145293183642</v>
       </c>
       <c r="D20">
-        <v>1.007848719884793</v>
+        <v>1.031628079123467</v>
       </c>
       <c r="E20">
-        <v>1.002676530934902</v>
+        <v>1.037357481967937</v>
       </c>
       <c r="F20">
-        <v>1.008225137756658</v>
+        <v>1.046281040645757</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04252611441107</v>
+        <v>1.03366376530853</v>
       </c>
       <c r="J20">
-        <v>1.013623309453139</v>
+        <v>1.0343947565848</v>
       </c>
       <c r="K20">
-        <v>1.021754948848117</v>
+        <v>1.035016964220691</v>
       </c>
       <c r="L20">
-        <v>1.016672479478883</v>
+        <v>1.040726286950606</v>
       </c>
       <c r="M20">
-        <v>1.022124883635198</v>
+        <v>1.049619052659423</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9797341328209593</v>
+        <v>1.027054997823055</v>
       </c>
       <c r="D21">
-        <v>1.003722768010475</v>
+        <v>1.030841011138141</v>
       </c>
       <c r="E21">
-        <v>0.9978605541558193</v>
+        <v>1.036383252445704</v>
       </c>
       <c r="F21">
-        <v>1.00283171034329</v>
+        <v>1.045189010858397</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040787364463272</v>
+        <v>1.033443083084273</v>
       </c>
       <c r="J21">
-        <v>1.010104296345807</v>
+        <v>1.033705857238571</v>
       </c>
       <c r="K21">
-        <v>1.018633952991084</v>
+        <v>1.034440455374392</v>
       </c>
       <c r="L21">
-        <v>1.012882572673201</v>
+        <v>1.039961964840611</v>
       </c>
       <c r="M21">
-        <v>1.017759632965968</v>
+        <v>1.048735283487242</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9760045196613327</v>
+        <v>1.026369780886735</v>
       </c>
       <c r="D22">
-        <v>1.001067606575452</v>
+        <v>1.030346006925102</v>
       </c>
       <c r="E22">
-        <v>0.9947661803856543</v>
+        <v>1.035771390004776</v>
       </c>
       <c r="F22">
-        <v>0.9993649274647739</v>
+        <v>1.044503102750176</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039653391358665</v>
+        <v>1.033302515385199</v>
       </c>
       <c r="J22">
-        <v>1.007835259941346</v>
+        <v>1.033272384267554</v>
       </c>
       <c r="K22">
-        <v>1.016617943597794</v>
+        <v>1.034077110375351</v>
       </c>
       <c r="L22">
-        <v>1.010442038204723</v>
+        <v>1.039481392602298</v>
       </c>
       <c r="M22">
-        <v>1.014948975772901</v>
+        <v>1.048179655637715</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9779904985915227</v>
+        <v>1.026732999167153</v>
       </c>
       <c r="D23">
-        <v>1.002481114795973</v>
+        <v>1.030608431186855</v>
       </c>
       <c r="E23">
-        <v>0.9964130665001217</v>
+        <v>1.036095685565885</v>
       </c>
       <c r="F23">
-        <v>1.001210151864734</v>
+        <v>1.044866649426369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040258482946658</v>
+        <v>1.033377204923862</v>
       </c>
       <c r="J23">
-        <v>1.009043638989577</v>
+        <v>1.033502207940211</v>
       </c>
       <c r="K23">
-        <v>1.017691904054573</v>
+        <v>1.034269808693642</v>
       </c>
       <c r="L23">
-        <v>1.011741449978324</v>
+        <v>1.039736153934704</v>
       </c>
       <c r="M23">
-        <v>1.016445416843648</v>
+        <v>1.048474201023128</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9856182559227237</v>
+        <v>1.028163577084192</v>
       </c>
       <c r="D24">
-        <v>1.007916895342954</v>
+        <v>1.031641271899213</v>
       </c>
       <c r="E24">
-        <v>1.002756191234264</v>
+        <v>1.037373826403223</v>
       </c>
       <c r="F24">
-        <v>1.008314327534984</v>
+        <v>1.046299360358974</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042554593027084</v>
+        <v>1.033667434246409</v>
       </c>
       <c r="J24">
-        <v>1.013681384193391</v>
+        <v>1.034406300342378</v>
       </c>
       <c r="K24">
-        <v>1.021806393354342</v>
+        <v>1.035026614635975</v>
       </c>
       <c r="L24">
-        <v>1.016735077335199</v>
+        <v>1.040739100633202</v>
       </c>
       <c r="M24">
-        <v>1.022196990714701</v>
+        <v>1.049633869651696</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9941054531235064</v>
+        <v>1.029824945931131</v>
       </c>
       <c r="D25">
-        <v>1.013975591521452</v>
+        <v>1.032839159114891</v>
       </c>
       <c r="E25">
-        <v>1.009847699117854</v>
+        <v>1.038859935865062</v>
       </c>
       <c r="F25">
-        <v>1.016251291242112</v>
+        <v>1.047964927556434</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04504998407726</v>
+        <v>1.033996301757562</v>
       </c>
       <c r="J25">
-        <v>1.018832833818249</v>
+        <v>1.035453965176408</v>
       </c>
       <c r="K25">
-        <v>1.026360760250961</v>
+        <v>1.035901022645645</v>
       </c>
       <c r="L25">
-        <v>1.022295041759939</v>
+        <v>1.041902879590032</v>
       </c>
       <c r="M25">
-        <v>1.028602458282559</v>
+        <v>1.050979710372256</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.031151043873883</v>
+        <v>1.000608816087184</v>
       </c>
       <c r="D2">
-        <v>1.033794005858964</v>
+        <v>1.018623401269044</v>
       </c>
       <c r="E2">
-        <v>1.04004754849501</v>
+        <v>1.015306302050161</v>
       </c>
       <c r="F2">
-        <v>1.049295746533633</v>
+        <v>1.022356787571011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034252190235561</v>
+        <v>1.046912197950458</v>
       </c>
       <c r="J2">
-        <v>1.036288353266912</v>
+        <v>1.022771332805609</v>
       </c>
       <c r="K2">
-        <v>1.036595331243573</v>
+        <v>1.029829239134636</v>
       </c>
       <c r="L2">
-        <v>1.042831005245076</v>
+        <v>1.026556436078821</v>
       </c>
       <c r="M2">
-        <v>1.052053201275855</v>
+        <v>1.033513201401633</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C3">
-        <v>1.032114475006056</v>
+        <v>1.005189039903261</v>
       </c>
       <c r="D3">
-        <v>1.034486947339885</v>
+        <v>1.021898445684315</v>
       </c>
       <c r="E3">
-        <v>1.040911172603168</v>
+        <v>1.019163990621789</v>
       </c>
       <c r="F3">
-        <v>1.050263392983344</v>
+        <v>1.026669593706994</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.034434255854914</v>
+        <v>1.048193740922317</v>
       </c>
       <c r="J3">
-        <v>1.036893467496079</v>
+        <v>1.025539239110444</v>
       </c>
       <c r="K3">
-        <v>1.037097636706108</v>
+        <v>1.032258593948298</v>
       </c>
       <c r="L3">
-        <v>1.043504832478979</v>
+        <v>1.029557398761288</v>
       </c>
       <c r="M3">
-        <v>1.052832663760756</v>
+        <v>1.036972235651553</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.03273813800451</v>
+        <v>1.008090916425972</v>
       </c>
       <c r="D4">
-        <v>1.0349351517338</v>
+        <v>1.023973736138489</v>
       </c>
       <c r="E4">
-        <v>1.041470595795955</v>
+        <v>1.021613930115602</v>
       </c>
       <c r="F4">
-        <v>1.050890145098847</v>
+        <v>1.029407679175175</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034550333668626</v>
+        <v>1.048991441238318</v>
       </c>
       <c r="J4">
-        <v>1.037284676409204</v>
+        <v>1.027289895962349</v>
       </c>
       <c r="K4">
-        <v>1.037421812309858</v>
+        <v>1.033791179609844</v>
       </c>
       <c r="L4">
-        <v>1.043940804187239</v>
+        <v>1.031458309100407</v>
       </c>
       <c r="M4">
-        <v>1.05333702831738</v>
+        <v>1.039163676464472</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033000387040909</v>
+        <v>1.009296588653662</v>
       </c>
       <c r="D5">
-        <v>1.035123533593508</v>
+        <v>1.024835995543285</v>
       </c>
       <c r="E5">
-        <v>1.041705919885412</v>
+        <v>1.02263318927665</v>
       </c>
       <c r="F5">
-        <v>1.051153778930654</v>
+        <v>1.030546612029842</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.03459871775174</v>
+        <v>1.049319398423776</v>
       </c>
       <c r="J5">
-        <v>1.037449058230777</v>
+        <v>1.028016503410205</v>
       </c>
       <c r="K5">
-        <v>1.037557891334787</v>
+        <v>1.034426310614392</v>
       </c>
       <c r="L5">
-        <v>1.04412407623866</v>
+        <v>1.032247965094261</v>
       </c>
       <c r="M5">
-        <v>1.053549062128902</v>
+        <v>1.040074112305126</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03304442336831</v>
+        <v>1.0094982039492</v>
       </c>
       <c r="D6">
-        <v>1.035155161159996</v>
+        <v>1.024980183794627</v>
       </c>
       <c r="E6">
-        <v>1.041745440161006</v>
+        <v>1.02280371076201</v>
       </c>
       <c r="F6">
-        <v>1.051198052809794</v>
+        <v>1.03073714305444</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03460681729514</v>
+        <v>1.049374034541344</v>
       </c>
       <c r="J6">
-        <v>1.037476653803436</v>
+        <v>1.028137962898021</v>
       </c>
       <c r="K6">
-        <v>1.037580727586689</v>
+        <v>1.034532421520323</v>
       </c>
       <c r="L6">
-        <v>1.044154847780878</v>
+        <v>1.032380004174812</v>
       </c>
       <c r="M6">
-        <v>1.053584663445432</v>
+        <v>1.040226352467646</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032741641949849</v>
+        <v>1.008107082096728</v>
       </c>
       <c r="D7">
-        <v>1.034937669073152</v>
+        <v>1.023985297337523</v>
       </c>
       <c r="E7">
-        <v>1.041473739649249</v>
+        <v>1.021627591047912</v>
       </c>
       <c r="F7">
-        <v>1.05089366720999</v>
+        <v>1.029422944868897</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034550981810741</v>
+        <v>1.048995852278938</v>
       </c>
       <c r="J7">
-        <v>1.037286873212081</v>
+        <v>1.027299641359617</v>
       </c>
       <c r="K7">
-        <v>1.03742363140886</v>
+        <v>1.033799701953861</v>
       </c>
       <c r="L7">
-        <v>1.043943253119677</v>
+        <v>1.031468897401572</v>
       </c>
       <c r="M7">
-        <v>1.053339861529049</v>
+        <v>1.039175883912173</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.031476585899872</v>
+        <v>1.002169853222523</v>
       </c>
       <c r="D8">
-        <v>1.034028224116637</v>
+        <v>1.019739497314586</v>
       </c>
       <c r="E8">
-        <v>1.040339289207547</v>
+        <v>1.016619832747398</v>
       </c>
       <c r="F8">
-        <v>1.049622638038526</v>
+        <v>1.023825476050533</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034314078140005</v>
+        <v>1.047351929090455</v>
       </c>
       <c r="J8">
-        <v>1.036492924407443</v>
+        <v>1.023715299344942</v>
       </c>
       <c r="K8">
-        <v>1.036765263046733</v>
+        <v>1.030658561682406</v>
       </c>
       <c r="L8">
-        <v>1.043058735917389</v>
+        <v>1.027579287216576</v>
       </c>
       <c r="M8">
-        <v>1.052316623569898</v>
+        <v>1.03469210476013</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029249411610389</v>
+        <v>0.9912090142584654</v>
       </c>
       <c r="D9">
-        <v>1.032424384396941</v>
+        <v>1.011906893524331</v>
       </c>
       <c r="E9">
-        <v>1.03834489629044</v>
+        <v>1.007423521798418</v>
       </c>
       <c r="F9">
-        <v>1.047387725712584</v>
+        <v>1.013538741726004</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033883396907239</v>
+        <v>1.044206104598344</v>
       </c>
       <c r="J9">
-        <v>1.035091317150397</v>
+        <v>1.017076070342511</v>
       </c>
       <c r="K9">
-        <v>1.035598670581238</v>
+        <v>1.024809698981553</v>
       </c>
       <c r="L9">
-        <v>1.041499843641414</v>
+        <v>1.020397294874814</v>
       </c>
       <c r="M9">
-        <v>1.05051359734007</v>
+        <v>1.026415915898341</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027766029879014</v>
+        <v>0.9835290370184789</v>
       </c>
       <c r="D10">
-        <v>1.031354375255896</v>
+        <v>1.006427056996327</v>
       </c>
       <c r="E10">
-        <v>1.037018500751338</v>
+        <v>1.001016010013611</v>
       </c>
       <c r="F10">
-        <v>1.045901084762932</v>
+        <v>1.006365811317841</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033587421932293</v>
+        <v>1.041930345667492</v>
       </c>
       <c r="J10">
-        <v>1.034155237735369</v>
+        <v>1.012411740470388</v>
       </c>
       <c r="K10">
-        <v>1.034816654629639</v>
+        <v>1.020681230524056</v>
       </c>
       <c r="L10">
-        <v>1.040460464285104</v>
+        <v>1.015366944284849</v>
       </c>
       <c r="M10">
-        <v>1.049311676951598</v>
+        <v>1.020621072490547</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027124050529029</v>
+        <v>0.9801060019190219</v>
       </c>
       <c r="D11">
-        <v>1.030890880147991</v>
+        <v>1.003987652264217</v>
       </c>
       <c r="E11">
-        <v>1.03644493032455</v>
+        <v>0.9981694535375571</v>
       </c>
       <c r="F11">
-        <v>1.045258150174917</v>
+        <v>1.003177726417868</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033457169325331</v>
+        <v>1.040899864784785</v>
       </c>
       <c r="J11">
-        <v>1.033749518414146</v>
+        <v>1.010330470200652</v>
       </c>
       <c r="K11">
-        <v>1.034477027976454</v>
+        <v>1.018834757088916</v>
       </c>
       <c r="L11">
-        <v>1.040010385232444</v>
+        <v>1.013125974047199</v>
       </c>
       <c r="M11">
-        <v>1.048791268166728</v>
+        <v>1.018039963260948</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.026885641751821</v>
+        <v>0.9788190365616236</v>
       </c>
       <c r="D12">
-        <v>1.030718692546047</v>
+        <v>1.003071050053124</v>
       </c>
       <c r="E12">
-        <v>1.036231997184044</v>
+        <v>0.9971006987898555</v>
       </c>
       <c r="F12">
-        <v>1.045019455560543</v>
+        <v>1.001980506447817</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033408473775168</v>
+        <v>1.040510078402217</v>
       </c>
       <c r="J12">
-        <v>1.033598758291029</v>
+        <v>1.009547673782146</v>
       </c>
       <c r="K12">
-        <v>1.034350724893693</v>
+        <v>1.018139649157882</v>
       </c>
       <c r="L12">
-        <v>1.039843203580029</v>
+        <v>1.012283656432074</v>
       </c>
       <c r="M12">
-        <v>1.048597970775457</v>
+        <v>1.017069861189227</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.026936778928382</v>
+        <v>0.9790958104912643</v>
       </c>
       <c r="D13">
-        <v>1.030755628476741</v>
+        <v>1.003268147718</v>
       </c>
       <c r="E13">
-        <v>1.036277666777558</v>
+        <v>0.9973304768875105</v>
       </c>
       <c r="F13">
-        <v>1.045070650921134</v>
+        <v>1.002237914969113</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033418933332629</v>
+        <v>1.040594010777866</v>
       </c>
       <c r="J13">
-        <v>1.033631099456528</v>
+        <v>1.009716033995744</v>
       </c>
       <c r="K13">
-        <v>1.034377824135134</v>
+        <v>1.018289177425435</v>
       </c>
       <c r="L13">
-        <v>1.039879064699609</v>
+        <v>1.012464793590778</v>
       </c>
       <c r="M13">
-        <v>1.04863943345258</v>
+        <v>1.017278475018683</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02710434254227</v>
+        <v>0.9799999421926029</v>
       </c>
       <c r="D14">
-        <v>1.030876647567339</v>
+        <v>1.003912102780466</v>
       </c>
       <c r="E14">
-        <v>1.036427326822564</v>
+        <v>0.9980813463988949</v>
       </c>
       <c r="F14">
-        <v>1.045238417150885</v>
+        <v>1.003079033612747</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033453150536684</v>
+        <v>1.040867789632319</v>
       </c>
       <c r="J14">
-        <v>1.03373705771189</v>
+        <v>1.010265965110634</v>
       </c>
       <c r="K14">
-        <v>1.034466590791644</v>
+        <v>1.018777490320302</v>
       </c>
       <c r="L14">
-        <v>1.0399965659857</v>
+        <v>1.013056553144758</v>
       </c>
       <c r="M14">
-        <v>1.048775290024033</v>
+        <v>1.017960009506798</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027207590784213</v>
+        <v>0.9805549277713993</v>
       </c>
       <c r="D15">
-        <v>1.030951208164099</v>
+        <v>1.004307458250089</v>
       </c>
       <c r="E15">
-        <v>1.036519552780825</v>
+        <v>0.9985424506741833</v>
       </c>
       <c r="F15">
-        <v>1.045341799385721</v>
+        <v>1.003595527716427</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03347419130394</v>
+        <v>1.041035535841655</v>
       </c>
       <c r="J15">
-        <v>1.033802334441454</v>
+        <v>1.010603493281134</v>
       </c>
       <c r="K15">
-        <v>1.034521262926581</v>
+        <v>1.019077118186041</v>
       </c>
       <c r="L15">
-        <v>1.040068962134274</v>
+        <v>1.013419825888453</v>
       </c>
       <c r="M15">
-        <v>1.04885899651364</v>
+        <v>1.018378402236788</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027808643041824</v>
+        <v>0.9837540868053294</v>
       </c>
       <c r="D16">
-        <v>1.031385132340677</v>
+        <v>1.006587507782718</v>
       </c>
       <c r="E16">
-        <v>1.03705658300056</v>
+        <v>1.001203358862645</v>
       </c>
       <c r="F16">
-        <v>1.045943770969697</v>
+        <v>1.006575606064654</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.033596022311906</v>
+        <v>1.041997764959788</v>
       </c>
       <c r="J16">
-        <v>1.034182155826411</v>
+        <v>1.012548530845512</v>
       </c>
       <c r="K16">
-        <v>1.034839173359824</v>
+        <v>1.020802501408703</v>
       </c>
       <c r="L16">
-        <v>1.040490334184727</v>
+        <v>1.015514306262929</v>
       </c>
       <c r="M16">
-        <v>1.049346215499911</v>
+        <v>1.020790810329091</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028185757317251</v>
+        <v>0.9857341417329647</v>
       </c>
       <c r="D17">
-        <v>1.03165727580466</v>
+        <v>1.00799955466443</v>
       </c>
       <c r="E17">
-        <v>1.037393654175992</v>
+        <v>1.002852779157827</v>
       </c>
       <c r="F17">
-        <v>1.046321584336492</v>
+        <v>1.008422468967094</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033671883615792</v>
+        <v>1.042589110571222</v>
       </c>
       <c r="J17">
-        <v>1.034420303698185</v>
+        <v>1.013751793730839</v>
       </c>
       <c r="K17">
-        <v>1.035038320789926</v>
+        <v>1.021868761609236</v>
       </c>
       <c r="L17">
-        <v>1.040754644765972</v>
+        <v>1.016810973032059</v>
       </c>
       <c r="M17">
-        <v>1.049651844012913</v>
+        <v>1.022284415989678</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028405753946774</v>
+        <v>0.9868797216729912</v>
       </c>
       <c r="D18">
-        <v>1.031815995600804</v>
+        <v>1.008816786893086</v>
       </c>
       <c r="E18">
-        <v>1.037590336075822</v>
+        <v>1.003807947203053</v>
       </c>
       <c r="F18">
-        <v>1.04654203270274</v>
+        <v>1.009491834086662</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033715930200028</v>
+        <v>1.042929702401568</v>
       </c>
       <c r="J18">
-        <v>1.034559173566425</v>
+        <v>1.014447727876692</v>
       </c>
       <c r="K18">
-        <v>1.035154382742135</v>
+        <v>1.022485047009511</v>
       </c>
       <c r="L18">
-        <v>1.04090881057683</v>
+        <v>1.017561272660194</v>
       </c>
       <c r="M18">
-        <v>1.049830114846862</v>
+        <v>1.023148713101888</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028480772563165</v>
+        <v>0.9872687730197909</v>
       </c>
       <c r="D19">
-        <v>1.031870112047285</v>
+        <v>1.009094372383225</v>
       </c>
       <c r="E19">
-        <v>1.037657412035783</v>
+        <v>1.004132479879459</v>
       </c>
       <c r="F19">
-        <v>1.046617212793225</v>
+        <v>1.009855143459296</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033730914661037</v>
+        <v>1.043045108257805</v>
       </c>
       <c r="J19">
-        <v>1.034606518174163</v>
+        <v>1.01468403487263</v>
       </c>
       <c r="K19">
-        <v>1.035193940324487</v>
+        <v>1.022694238661145</v>
       </c>
       <c r="L19">
-        <v>1.040961376754447</v>
+        <v>1.017816097882032</v>
       </c>
       <c r="M19">
-        <v>1.049890901054757</v>
+        <v>1.023442262477928</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028145293183642</v>
+        <v>0.9855226738465709</v>
       </c>
       <c r="D20">
-        <v>1.031628079123467</v>
+        <v>1.007848719884793</v>
       </c>
       <c r="E20">
-        <v>1.037357481967937</v>
+        <v>1.002676530934902</v>
       </c>
       <c r="F20">
-        <v>1.046281040645757</v>
+        <v>1.008225137756658</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03366376530853</v>
+        <v>1.042526114411069</v>
       </c>
       <c r="J20">
-        <v>1.0343947565848</v>
+        <v>1.013623309453139</v>
       </c>
       <c r="K20">
-        <v>1.035016964220691</v>
+        <v>1.021754948848117</v>
       </c>
       <c r="L20">
-        <v>1.040726286950606</v>
+        <v>1.016672479478883</v>
       </c>
       <c r="M20">
-        <v>1.049619052659423</v>
+        <v>1.022124883635198</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027054997823055</v>
+        <v>0.9797341328209582</v>
       </c>
       <c r="D21">
-        <v>1.030841011138141</v>
+        <v>1.003722768010475</v>
       </c>
       <c r="E21">
-        <v>1.036383252445704</v>
+        <v>0.9978605541558183</v>
       </c>
       <c r="F21">
-        <v>1.045189010858397</v>
+        <v>1.002831710343289</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033443083084273</v>
+        <v>1.040787364463272</v>
       </c>
       <c r="J21">
-        <v>1.033705857238571</v>
+        <v>1.010104296345806</v>
       </c>
       <c r="K21">
-        <v>1.034440455374392</v>
+        <v>1.018633952991083</v>
       </c>
       <c r="L21">
-        <v>1.039961964840611</v>
+        <v>1.0128825726732</v>
       </c>
       <c r="M21">
-        <v>1.048735283487242</v>
+        <v>1.017759632965967</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026369780886735</v>
+        <v>0.9760045196613324</v>
       </c>
       <c r="D22">
-        <v>1.030346006925102</v>
+        <v>1.001067606575452</v>
       </c>
       <c r="E22">
-        <v>1.035771390004776</v>
+        <v>0.994766180385654</v>
       </c>
       <c r="F22">
-        <v>1.044503102750176</v>
+        <v>0.9993649274647733</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033302515385199</v>
+        <v>1.039653391358665</v>
       </c>
       <c r="J22">
-        <v>1.033272384267554</v>
+        <v>1.007835259941346</v>
       </c>
       <c r="K22">
-        <v>1.034077110375351</v>
+        <v>1.016617943597794</v>
       </c>
       <c r="L22">
-        <v>1.039481392602298</v>
+        <v>1.010442038204723</v>
       </c>
       <c r="M22">
-        <v>1.048179655637715</v>
+        <v>1.014948975772901</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.026732999167153</v>
+        <v>0.9779904985915234</v>
       </c>
       <c r="D23">
-        <v>1.030608431186855</v>
+        <v>1.002481114795974</v>
       </c>
       <c r="E23">
-        <v>1.036095685565885</v>
+        <v>0.9964130665001226</v>
       </c>
       <c r="F23">
-        <v>1.044866649426369</v>
+        <v>1.001210151864734</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.033377204923862</v>
+        <v>1.040258482946659</v>
       </c>
       <c r="J23">
-        <v>1.033502207940211</v>
+        <v>1.009043638989577</v>
       </c>
       <c r="K23">
-        <v>1.034269808693642</v>
+        <v>1.017691904054573</v>
       </c>
       <c r="L23">
-        <v>1.039736153934704</v>
+        <v>1.011741449978325</v>
       </c>
       <c r="M23">
-        <v>1.048474201023128</v>
+        <v>1.016445416843648</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028163577084192</v>
+        <v>0.9856182559227232</v>
       </c>
       <c r="D24">
-        <v>1.031641271899213</v>
+        <v>1.007916895342954</v>
       </c>
       <c r="E24">
-        <v>1.037373826403223</v>
+        <v>1.002756191234263</v>
       </c>
       <c r="F24">
-        <v>1.046299360358974</v>
+        <v>1.008314327534984</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033667434246409</v>
+        <v>1.042554593027084</v>
       </c>
       <c r="J24">
-        <v>1.034406300342378</v>
+        <v>1.01368138419339</v>
       </c>
       <c r="K24">
-        <v>1.035026614635975</v>
+        <v>1.021806393354342</v>
       </c>
       <c r="L24">
-        <v>1.040739100633202</v>
+        <v>1.016735077335199</v>
       </c>
       <c r="M24">
-        <v>1.049633869651696</v>
+        <v>1.022196990714701</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029824945931131</v>
+        <v>0.9941054531235058</v>
       </c>
       <c r="D25">
-        <v>1.032839159114891</v>
+        <v>1.013975591521452</v>
       </c>
       <c r="E25">
-        <v>1.038859935865062</v>
+        <v>1.009847699117853</v>
       </c>
       <c r="F25">
-        <v>1.047964927556434</v>
+        <v>1.016251291242112</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.033996301757562</v>
+        <v>1.04504998407726</v>
       </c>
       <c r="J25">
-        <v>1.035453965176408</v>
+        <v>1.018832833818249</v>
       </c>
       <c r="K25">
-        <v>1.035901022645645</v>
+        <v>1.026360760250961</v>
       </c>
       <c r="L25">
-        <v>1.041902879590032</v>
+        <v>1.022295041759939</v>
       </c>
       <c r="M25">
-        <v>1.050979710372256</v>
+        <v>1.028602458282559</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,75 +433,105 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000608816087184</v>
+        <v>0.9944655042599366</v>
       </c>
       <c r="D2">
-        <v>1.018623401269044</v>
+        <v>1.016858085423768</v>
       </c>
       <c r="E2">
-        <v>1.015306302050161</v>
+        <v>1.001676640332156</v>
       </c>
       <c r="F2">
-        <v>1.022356787571011</v>
+        <v>1.01422470996735</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046912197950458</v>
+        <v>1.045071720046637</v>
       </c>
       <c r="J2">
-        <v>1.022771332805609</v>
+        <v>1.016813020722126</v>
       </c>
       <c r="K2">
-        <v>1.029829239134636</v>
+        <v>1.028087451934423</v>
       </c>
       <c r="L2">
-        <v>1.026556436078821</v>
+        <v>1.013112666209018</v>
       </c>
       <c r="M2">
-        <v>1.033513201401633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.025489366177693</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503999</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.028745416406217</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.030930402485485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005189039903261</v>
+        <v>0.9985499055172494</v>
       </c>
       <c r="D3">
-        <v>1.021898445684315</v>
+        <v>1.019558426198212</v>
       </c>
       <c r="E3">
-        <v>1.019163990621789</v>
+        <v>1.004900486445093</v>
       </c>
       <c r="F3">
-        <v>1.026669593706994</v>
+        <v>1.01740287570562</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048193740922317</v>
+        <v>1.045945008806524</v>
       </c>
       <c r="J3">
-        <v>1.025539239110444</v>
+        <v>1.019080179782195</v>
       </c>
       <c r="K3">
-        <v>1.032258593948298</v>
+        <v>1.029947023031295</v>
       </c>
       <c r="L3">
-        <v>1.029557398761288</v>
+        <v>1.015471046289773</v>
       </c>
       <c r="M3">
-        <v>1.036972235651553</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.027817822441996</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.030588261675475</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032242617278412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008090916425972</v>
+        <v>1.001139205737511</v>
       </c>
       <c r="D4">
-        <v>1.023973736138489</v>
+        <v>1.021270938289301</v>
       </c>
       <c r="E4">
-        <v>1.021613930115602</v>
+        <v>1.006950107142064</v>
       </c>
       <c r="F4">
-        <v>1.029407679175175</v>
+        <v>1.019426314058221</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.048991441238318</v>
+        <v>1.046483398611711</v>
       </c>
       <c r="J4">
-        <v>1.027289895962349</v>
+        <v>1.020513815339641</v>
       </c>
       <c r="K4">
-        <v>1.033791179609844</v>
+        <v>1.031119245070176</v>
       </c>
       <c r="L4">
-        <v>1.031458309100407</v>
+        <v>1.01696536801754</v>
       </c>
       <c r="M4">
-        <v>1.039163676464472</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.029295800661824</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.031757997738304</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.03307240033011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009296588653662</v>
+        <v>1.002218042635499</v>
       </c>
       <c r="D5">
-        <v>1.024835995543285</v>
+        <v>1.02198633507974</v>
       </c>
       <c r="E5">
-        <v>1.02263318927665</v>
+        <v>1.007805834974956</v>
       </c>
       <c r="F5">
-        <v>1.030546612029842</v>
+        <v>1.020270470893871</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.049319398423776</v>
+        <v>1.046705261202977</v>
       </c>
       <c r="J5">
-        <v>1.028016503410205</v>
+        <v>1.021111383071777</v>
       </c>
       <c r="K5">
-        <v>1.034426310614392</v>
+        <v>1.031608318440867</v>
       </c>
       <c r="L5">
-        <v>1.032247965094261</v>
+        <v>1.017588694293439</v>
       </c>
       <c r="M5">
-        <v>1.040074112305126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.029911627696417</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.032245389382807</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.033425457754575</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0094982039492</v>
+        <v>1.002401768130806</v>
       </c>
       <c r="D6">
-        <v>1.024980183794627</v>
+        <v>1.022110330240567</v>
       </c>
       <c r="E6">
-        <v>1.02280371076201</v>
+        <v>1.007952103043821</v>
       </c>
       <c r="F6">
-        <v>1.03073714305444</v>
+        <v>1.020413191745151</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.049374034541344</v>
+        <v>1.046744357644506</v>
       </c>
       <c r="J6">
-        <v>1.028137962898021</v>
+        <v>1.021214486974604</v>
       </c>
       <c r="K6">
-        <v>1.034532421520323</v>
+        <v>1.031694313774007</v>
       </c>
       <c r="L6">
-        <v>1.032380004174812</v>
+        <v>1.017695967471134</v>
       </c>
       <c r="M6">
-        <v>1.040226352467646</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.030016052096648</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.032328035250141</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.033495086776161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008107082096728</v>
+        <v>1.001162503552299</v>
       </c>
       <c r="D7">
-        <v>1.023985297337523</v>
+        <v>1.021292127974343</v>
       </c>
       <c r="E7">
-        <v>1.021627591047912</v>
+        <v>1.006969821239323</v>
       </c>
       <c r="F7">
-        <v>1.029422944868897</v>
+        <v>1.019441442068749</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048995852278938</v>
+        <v>1.046492285530155</v>
       </c>
       <c r="J7">
-        <v>1.027299641359617</v>
+        <v>1.020530439224647</v>
       </c>
       <c r="K7">
-        <v>1.033799701953861</v>
+        <v>1.031137274462433</v>
       </c>
       <c r="L7">
-        <v>1.031468897401572</v>
+        <v>1.016981874786511</v>
       </c>
       <c r="M7">
-        <v>1.039175883912173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.029307829942294</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.031767518224522</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.033105442596888</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002169853222523</v>
+        <v>0.9958680321494969</v>
       </c>
       <c r="D8">
-        <v>1.019739497314586</v>
+        <v>1.017792094689</v>
       </c>
       <c r="E8">
-        <v>1.016619832747398</v>
+        <v>1.00278402929872</v>
       </c>
       <c r="F8">
-        <v>1.023825476050533</v>
+        <v>1.01531047114924</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047351929090455</v>
+        <v>1.045379586821681</v>
       </c>
       <c r="J8">
-        <v>1.023715299344942</v>
+        <v>1.01759677675714</v>
       </c>
       <c r="K8">
-        <v>1.030658561682406</v>
+        <v>1.028736335611891</v>
       </c>
       <c r="L8">
-        <v>1.027579287216576</v>
+        <v>1.013926420741248</v>
       </c>
       <c r="M8">
-        <v>1.03469210476013</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.026286970452428</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.029376676942589</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03141236333541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9912090142584654</v>
+        <v>0.9860949869173636</v>
       </c>
       <c r="D9">
-        <v>1.011906893524331</v>
+        <v>1.011330298953891</v>
       </c>
       <c r="E9">
-        <v>1.007423521798418</v>
+        <v>0.9951040091500795</v>
       </c>
       <c r="F9">
-        <v>1.013538741726004</v>
+        <v>1.0077606831504</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044206104598344</v>
+        <v>1.043200922255417</v>
       </c>
       <c r="J9">
-        <v>1.017076070342511</v>
+        <v>1.012148506504663</v>
       </c>
       <c r="K9">
-        <v>1.024809698981553</v>
+        <v>1.024242186240217</v>
       </c>
       <c r="L9">
-        <v>1.020397294874814</v>
+        <v>1.008277022997864</v>
       </c>
       <c r="M9">
-        <v>1.026415915898341</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.020729091141513</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.024977904773606</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.028231419813925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9835290370184789</v>
+        <v>0.9793773987362184</v>
       </c>
       <c r="D10">
-        <v>1.006427056996327</v>
+        <v>1.006903339521209</v>
       </c>
       <c r="E10">
-        <v>1.001016010013611</v>
+        <v>0.9898728587767905</v>
       </c>
       <c r="F10">
-        <v>1.006365811317841</v>
+        <v>1.002866545838482</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041930345667492</v>
+        <v>1.041642556221662</v>
       </c>
       <c r="J10">
-        <v>1.012411740470388</v>
+        <v>1.008433813757159</v>
       </c>
       <c r="K10">
-        <v>1.020681230524056</v>
+        <v>1.021149060738233</v>
       </c>
       <c r="L10">
-        <v>1.015366944284849</v>
+        <v>1.004427401375422</v>
       </c>
       <c r="M10">
-        <v>1.020621072490547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.01718423608095</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.022224794987669</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.026061346978285</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9801060019190219</v>
+        <v>0.9772920565491887</v>
       </c>
       <c r="D11">
-        <v>1.003987652264217</v>
+        <v>1.005568108451059</v>
       </c>
       <c r="E11">
-        <v>0.9981694535375571</v>
+        <v>0.9883575538937465</v>
       </c>
       <c r="F11">
-        <v>1.003177726417868</v>
+        <v>1.003307577603854</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040899864784785</v>
+        <v>1.041251012802696</v>
       </c>
       <c r="J11">
-        <v>1.010330470200652</v>
+        <v>1.007641005537002</v>
       </c>
       <c r="K11">
-        <v>1.018834757088916</v>
+        <v>1.020385776832415</v>
       </c>
       <c r="L11">
-        <v>1.013125974047199</v>
+        <v>1.003502421044342</v>
       </c>
       <c r="M11">
-        <v>1.018039963260948</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.018167386262887</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.023446773213525</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.025554922613784</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9788190365616236</v>
+        <v>0.9768088576854579</v>
       </c>
       <c r="D12">
-        <v>1.003071050053124</v>
+        <v>1.005271957834641</v>
       </c>
       <c r="E12">
-        <v>0.9971006987898555</v>
+        <v>0.9880571943476697</v>
       </c>
       <c r="F12">
-        <v>1.001980506447817</v>
+        <v>1.004337521755515</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040510078402217</v>
+        <v>1.041204830588507</v>
       </c>
       <c r="J12">
-        <v>1.009547673782146</v>
+        <v>1.007628203517483</v>
       </c>
       <c r="K12">
-        <v>1.018139649157882</v>
+        <v>1.02029884767016</v>
       </c>
       <c r="L12">
-        <v>1.012283656432074</v>
+        <v>1.003416833066735</v>
       </c>
       <c r="M12">
-        <v>1.017069861189227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.019382090841084</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.024738805653192</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.025493459403892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9790958104912643</v>
+        <v>0.9775337565929</v>
       </c>
       <c r="D13">
-        <v>1.003268147718</v>
+        <v>1.005766435317331</v>
       </c>
       <c r="E13">
-        <v>0.9973304768875105</v>
+        <v>0.9886764817728884</v>
       </c>
       <c r="F13">
-        <v>1.002237914969113</v>
+        <v>1.00591378003247</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040594010777866</v>
+        <v>1.041432581812987</v>
       </c>
       <c r="J13">
-        <v>1.009716033995744</v>
+        <v>1.008224104788489</v>
       </c>
       <c r="K13">
-        <v>1.018289177425435</v>
+        <v>1.020740321478292</v>
       </c>
       <c r="L13">
-        <v>1.012464793590778</v>
+        <v>1.003979110865945</v>
       </c>
       <c r="M13">
-        <v>1.017278475018683</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.020884895299315</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026207092899479</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.025803079192707</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9799999421926029</v>
+        <v>0.9785767264919405</v>
       </c>
       <c r="D14">
-        <v>1.003912102780466</v>
+        <v>1.006463922133208</v>
       </c>
       <c r="E14">
-        <v>0.9980813463988949</v>
+        <v>0.9895165227087405</v>
       </c>
       <c r="F14">
-        <v>1.003079033612747</v>
+        <v>1.007236363905262</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040867789632319</v>
+        <v>1.041712344239003</v>
       </c>
       <c r="J14">
-        <v>1.010265965110634</v>
+        <v>1.00890569011574</v>
       </c>
       <c r="K14">
-        <v>1.018777490320302</v>
+        <v>1.021281769586244</v>
       </c>
       <c r="L14">
-        <v>1.013056553144758</v>
+        <v>1.004656120032121</v>
       </c>
       <c r="M14">
-        <v>1.017960009506798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.022039882791026</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027295134200284</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.026187352211926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9805549277713993</v>
+        <v>0.979106319753883</v>
       </c>
       <c r="D15">
-        <v>1.004307458250089</v>
+        <v>1.006816343217525</v>
       </c>
       <c r="E15">
-        <v>0.9985424506741833</v>
+        <v>0.9899331840166981</v>
       </c>
       <c r="F15">
-        <v>1.003595527716427</v>
+        <v>1.007727120478006</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.041035535841655</v>
+        <v>1.04184543579217</v>
       </c>
       <c r="J15">
-        <v>1.010603493281134</v>
+        <v>1.009218366998961</v>
       </c>
       <c r="K15">
-        <v>1.019077118186041</v>
+        <v>1.021539628308548</v>
       </c>
       <c r="L15">
-        <v>1.013419825888453</v>
+        <v>1.004974476888629</v>
       </c>
       <c r="M15">
-        <v>1.018378402236788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.022433644962168</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.027644226635675</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.026375613736263</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9837540868053294</v>
+        <v>0.9817957391379796</v>
       </c>
       <c r="D16">
-        <v>1.006587507782718</v>
+        <v>1.008587091512383</v>
       </c>
       <c r="E16">
-        <v>1.001203358862645</v>
+        <v>0.9920091799985619</v>
       </c>
       <c r="F16">
-        <v>1.006575606064654</v>
+        <v>1.009533991446872</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041997764959788</v>
+        <v>1.042475060394054</v>
       </c>
       <c r="J16">
-        <v>1.012548530845512</v>
+        <v>1.0106715473645</v>
       </c>
       <c r="K16">
-        <v>1.020802501408703</v>
+        <v>1.02276678768827</v>
       </c>
       <c r="L16">
-        <v>1.015514306262929</v>
+        <v>1.00648711878191</v>
       </c>
       <c r="M16">
-        <v>1.020790810329091</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.023697035791788</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.028603739134599</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.027246481266828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9857341417329647</v>
+        <v>0.9833217990741822</v>
       </c>
       <c r="D17">
-        <v>1.00799955466443</v>
+        <v>1.009586934074917</v>
       </c>
       <c r="E17">
-        <v>1.002852779157827</v>
+        <v>0.9931713570424717</v>
       </c>
       <c r="F17">
-        <v>1.008422468967094</v>
+        <v>1.010233527575821</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.042589110571222</v>
+        <v>1.042811018086384</v>
       </c>
       <c r="J17">
-        <v>1.013751793730839</v>
+        <v>1.011436335004141</v>
       </c>
       <c r="K17">
-        <v>1.021868761609236</v>
+        <v>1.023428932015661</v>
       </c>
       <c r="L17">
-        <v>1.016810973032059</v>
+        <v>1.007300185934449</v>
       </c>
       <c r="M17">
-        <v>1.022284415989678</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.024064474026179</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.028763911264338</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.027717268910688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9868797216729912</v>
+        <v>0.9839486622148559</v>
       </c>
       <c r="D18">
-        <v>1.008816786893086</v>
+        <v>1.009983797337162</v>
       </c>
       <c r="E18">
-        <v>1.003807947203053</v>
+        <v>0.9936148341697922</v>
       </c>
       <c r="F18">
-        <v>1.009491834086662</v>
+        <v>1.009874244003439</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.042929702401568</v>
+        <v>1.042911619634056</v>
       </c>
       <c r="J18">
-        <v>1.014447727876692</v>
+        <v>1.01163209193626</v>
       </c>
       <c r="K18">
-        <v>1.022485047009511</v>
+        <v>1.023632394352953</v>
       </c>
       <c r="L18">
-        <v>1.017561272660194</v>
+        <v>1.007544701694566</v>
       </c>
       <c r="M18">
-        <v>1.023148713101888</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.023524684404006</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.028096855652344</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.027849355945382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9872687730197909</v>
+        <v>0.9837321751900562</v>
       </c>
       <c r="D19">
-        <v>1.009094372383225</v>
+        <v>1.009822632094373</v>
       </c>
       <c r="E19">
-        <v>1.004132479879459</v>
+        <v>0.9933825295213763</v>
       </c>
       <c r="F19">
-        <v>1.009855143459296</v>
+        <v>1.008447624861629</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043045108257805</v>
+        <v>1.042795674437849</v>
       </c>
       <c r="J19">
-        <v>1.01468403487263</v>
+        <v>1.011285854501959</v>
       </c>
       <c r="K19">
-        <v>1.022694238661145</v>
+        <v>1.023410295357722</v>
       </c>
       <c r="L19">
-        <v>1.017816097882032</v>
+        <v>1.007251312563747</v>
       </c>
       <c r="M19">
-        <v>1.023442262477928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.022058347354914</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.026607470489085</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.027698790856842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9855226738465709</v>
+        <v>0.9811454963110781</v>
       </c>
       <c r="D20">
-        <v>1.007848719884793</v>
+        <v>1.008080762474437</v>
       </c>
       <c r="E20">
-        <v>1.002676530934902</v>
+        <v>0.9912511399494356</v>
       </c>
       <c r="F20">
-        <v>1.008225137756658</v>
+        <v>1.0041558944264</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.042526114411069</v>
+        <v>1.042067323513204</v>
       </c>
       <c r="J20">
-        <v>1.013623309453139</v>
+        <v>1.009423086651877</v>
       </c>
       <c r="K20">
-        <v>1.021754948848117</v>
+        <v>1.021982994203624</v>
       </c>
       <c r="L20">
-        <v>1.016672479478883</v>
+        <v>1.005449592003307</v>
       </c>
       <c r="M20">
-        <v>1.022124883635198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.018126058964589</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.022959404047321</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.026693585092243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9797341328209582</v>
+        <v>0.9759105852665468</v>
       </c>
       <c r="D21">
-        <v>1.003722768010475</v>
+        <v>1.004625689564144</v>
       </c>
       <c r="E21">
-        <v>0.9978605541558183</v>
+        <v>0.9871681306831394</v>
       </c>
       <c r="F21">
-        <v>1.002831710343289</v>
+        <v>0.9999768403358049</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040787364463272</v>
+        <v>1.040804829774322</v>
       </c>
       <c r="J21">
-        <v>1.010104296345806</v>
+        <v>1.006451181015978</v>
       </c>
       <c r="K21">
-        <v>1.018633952991083</v>
+        <v>1.019519953588981</v>
       </c>
       <c r="L21">
-        <v>1.0128825726732</v>
+        <v>1.002396754129499</v>
       </c>
       <c r="M21">
-        <v>1.017759632965967</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.014958651497618</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.020410872084893</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.02495535845974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9760045196613324</v>
+        <v>0.9725904167251032</v>
       </c>
       <c r="D22">
-        <v>1.001067606575452</v>
+        <v>1.002434715649102</v>
       </c>
       <c r="E22">
-        <v>0.994766180385654</v>
+        <v>0.9845915853428214</v>
       </c>
       <c r="F22">
-        <v>0.9993649274647733</v>
+        <v>0.9974636055753187</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039653391358665</v>
+        <v>1.03999245389464</v>
       </c>
       <c r="J22">
-        <v>1.007835259941346</v>
+        <v>1.004582630589178</v>
       </c>
       <c r="K22">
-        <v>1.016617943597794</v>
+        <v>1.017958094155596</v>
       </c>
       <c r="L22">
-        <v>1.010442038204723</v>
+        <v>1.000474593011927</v>
       </c>
       <c r="M22">
-        <v>1.014948975772901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.013085476947476</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.01892833549411</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.023837342964488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9779904985915234</v>
+        <v>0.9743502990154836</v>
       </c>
       <c r="D23">
-        <v>1.002481114795974</v>
+        <v>1.003591252547224</v>
       </c>
       <c r="E23">
-        <v>0.9964130665001226</v>
+        <v>0.9859551189262058</v>
       </c>
       <c r="F23">
-        <v>1.001210151864734</v>
+        <v>0.9987970931641392</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040258482946659</v>
+        <v>1.040421482186845</v>
       </c>
       <c r="J23">
-        <v>1.009043638989577</v>
+        <v>1.005570314388897</v>
       </c>
       <c r="K23">
-        <v>1.017691904054573</v>
+        <v>1.018780729591773</v>
       </c>
       <c r="L23">
-        <v>1.011741449978325</v>
+        <v>1.001490640574303</v>
       </c>
       <c r="M23">
-        <v>1.016445416843648</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.014079052604955</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.019714708037963</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.024409227740265</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9856182559227232</v>
+        <v>0.9811306731763311</v>
       </c>
       <c r="D24">
-        <v>1.007916895342954</v>
+        <v>1.008060607484234</v>
       </c>
       <c r="E24">
-        <v>1.002756191234263</v>
+        <v>0.9912279685394099</v>
       </c>
       <c r="F24">
-        <v>1.008314327534984</v>
+        <v>1.003954884799502</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.042554593027084</v>
+        <v>1.042048830150096</v>
       </c>
       <c r="J24">
-        <v>1.01368138419339</v>
+        <v>1.009374942488189</v>
       </c>
       <c r="K24">
-        <v>1.021806393354342</v>
+        <v>1.021947633204908</v>
       </c>
       <c r="L24">
-        <v>1.016735077335199</v>
+        <v>1.005410902230917</v>
       </c>
       <c r="M24">
-        <v>1.022196990714701</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.017912902376716</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.022749027137517</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.026640835820708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9941054531235058</v>
+        <v>0.9886888276318494</v>
       </c>
       <c r="D25">
-        <v>1.013975591521452</v>
+        <v>1.013052342356324</v>
       </c>
       <c r="E25">
-        <v>1.009847699117853</v>
+        <v>0.9971385420600903</v>
       </c>
       <c r="F25">
-        <v>1.016251291242112</v>
+        <v>1.009751364042898</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04504998407726</v>
+        <v>1.043798338821364</v>
       </c>
       <c r="J25">
-        <v>1.018832833818249</v>
+        <v>1.013602947510933</v>
       </c>
       <c r="K25">
-        <v>1.026360760250961</v>
+        <v>1.025451360981513</v>
       </c>
       <c r="L25">
-        <v>1.022295041759939</v>
+        <v>1.009781441481871</v>
       </c>
       <c r="M25">
-        <v>1.028602458282559</v>
+        <v>1.02220016540809</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.026142186228305</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.029115309266135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_61/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9944655042599366</v>
+        <v>0.994365151104156</v>
       </c>
       <c r="D2">
-        <v>1.016858085423768</v>
+        <v>1.016705624114941</v>
       </c>
       <c r="E2">
-        <v>1.001676640332156</v>
+        <v>1.001595788672712</v>
       </c>
       <c r="F2">
-        <v>1.01422470996735</v>
+        <v>1.014181236588952</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.045071720046637</v>
+        <v>1.04499433510496</v>
       </c>
       <c r="J2">
-        <v>1.016813020722126</v>
+        <v>1.016715715749842</v>
       </c>
       <c r="K2">
-        <v>1.028087451934423</v>
+        <v>1.02793702748837</v>
       </c>
       <c r="L2">
-        <v>1.013112666209018</v>
+        <v>1.013032936304527</v>
       </c>
       <c r="M2">
-        <v>1.025489366177693</v>
+        <v>1.025446477315896</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.009637762185257</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.028745416406217</v>
+        <v>1.028711472181249</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.030930402485485</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.030832901050588</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019594818540538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9985499055172494</v>
+        <v>0.9983161496310724</v>
       </c>
       <c r="D3">
-        <v>1.019558426198212</v>
+        <v>1.019216669323197</v>
       </c>
       <c r="E3">
-        <v>1.004900486445093</v>
+        <v>1.004702847162115</v>
       </c>
       <c r="F3">
-        <v>1.01740287570562</v>
+        <v>1.01730174770825</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.045945008806524</v>
+        <v>1.045771357107591</v>
       </c>
       <c r="J3">
-        <v>1.019080179782195</v>
+        <v>1.018852823598159</v>
       </c>
       <c r="K3">
-        <v>1.029947023031295</v>
+        <v>1.029609434622571</v>
       </c>
       <c r="L3">
-        <v>1.015471046289773</v>
+        <v>1.015275905761319</v>
       </c>
       <c r="M3">
-        <v>1.027817822441996</v>
+        <v>1.02771793406505</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.030588261675475</v>
+        <v>1.030509205610896</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032242617278412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032012490898444</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.019936432168446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.001139205737511</v>
+        <v>1.00082198075964</v>
       </c>
       <c r="D4">
-        <v>1.021270938289301</v>
+        <v>1.020810034155205</v>
       </c>
       <c r="E4">
-        <v>1.006950107142064</v>
+        <v>1.00667929905266</v>
       </c>
       <c r="F4">
-        <v>1.019426314058221</v>
+        <v>1.019289193154279</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.046483398611711</v>
+        <v>1.046249041786541</v>
       </c>
       <c r="J4">
-        <v>1.020513815339641</v>
+        <v>1.020204683531329</v>
       </c>
       <c r="K4">
-        <v>1.031119245070176</v>
+        <v>1.030663624144265</v>
       </c>
       <c r="L4">
-        <v>1.01696536801754</v>
+        <v>1.016697773739876</v>
       </c>
       <c r="M4">
-        <v>1.029295800661824</v>
+        <v>1.029160257948704</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.031757997738304</v>
+        <v>1.03165072343844</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03307240033011</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.032758893319496</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020149032616224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002218042635499</v>
+        <v>1.001866340882602</v>
       </c>
       <c r="D5">
-        <v>1.02198633507974</v>
+        <v>1.021476093011611</v>
       </c>
       <c r="E5">
-        <v>1.007805834974956</v>
+        <v>1.007504774148212</v>
       </c>
       <c r="F5">
-        <v>1.020270470893871</v>
+        <v>1.02011850174878</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.046705261202977</v>
+        <v>1.046445740078829</v>
       </c>
       <c r="J5">
-        <v>1.021111383071777</v>
+        <v>1.020768384191141</v>
       </c>
       <c r="K5">
-        <v>1.031608318440867</v>
+        <v>1.031103769647365</v>
       </c>
       <c r="L5">
-        <v>1.017588694293439</v>
+        <v>1.017291109598839</v>
       </c>
       <c r="M5">
-        <v>1.029911627696417</v>
+        <v>1.029761360515557</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.032245389382807</v>
+        <v>1.032126461591444</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.033425457754575</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.03307806604117</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020237499846982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002401768130806</v>
+        <v>1.002044271457975</v>
       </c>
       <c r="D6">
-        <v>1.022110330240567</v>
+        <v>1.021591827007666</v>
       </c>
       <c r="E6">
-        <v>1.007952103043821</v>
+        <v>1.007645942366242</v>
       </c>
       <c r="F6">
-        <v>1.020413191745151</v>
+        <v>1.02025872789164</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.046744357644506</v>
+        <v>1.046480621427687</v>
       </c>
       <c r="J6">
-        <v>1.021214486974604</v>
+        <v>1.020865790780832</v>
       </c>
       <c r="K6">
-        <v>1.031694313774007</v>
+        <v>1.031181569529605</v>
       </c>
       <c r="L6">
-        <v>1.017695967471134</v>
+        <v>1.017393325358047</v>
       </c>
       <c r="M6">
-        <v>1.030016052096648</v>
+        <v>1.02986331013984</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.032328035250141</v>
+        <v>1.032207148830723</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.033495086776161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.033142771146271</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020253546717332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001162503552299</v>
+        <v>1.000844689373877</v>
       </c>
       <c r="D7">
-        <v>1.021292127974343</v>
+        <v>1.02083050041019</v>
       </c>
       <c r="E7">
-        <v>1.006969821239323</v>
+        <v>1.006698456568486</v>
       </c>
       <c r="F7">
-        <v>1.019441442068749</v>
+        <v>1.019304067144628</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.046492285530155</v>
+        <v>1.046257559851148</v>
       </c>
       <c r="J7">
-        <v>1.020530439224647</v>
+        <v>1.020220729776008</v>
       </c>
       <c r="K7">
-        <v>1.031137274462433</v>
+        <v>1.030680936363948</v>
       </c>
       <c r="L7">
-        <v>1.016981874786511</v>
+        <v>1.016713729298025</v>
       </c>
       <c r="M7">
-        <v>1.029307829942294</v>
+        <v>1.02917203554648</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.031767518224522</v>
+        <v>1.031660044733661</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.033105442596888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.032793432957779</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020153717375721</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9958680321494969</v>
+        <v>0.9957217814118886</v>
       </c>
       <c r="D8">
-        <v>1.017792094689</v>
+        <v>1.017574852110026</v>
       </c>
       <c r="E8">
-        <v>1.00278402929872</v>
+        <v>1.002662959734159</v>
       </c>
       <c r="F8">
-        <v>1.01531047114924</v>
+        <v>1.015247143670104</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.045379586821681</v>
+        <v>1.045269281054053</v>
       </c>
       <c r="J8">
-        <v>1.01759677675714</v>
+        <v>1.017454817774487</v>
       </c>
       <c r="K8">
-        <v>1.028736335611891</v>
+        <v>1.02852190908236</v>
       </c>
       <c r="L8">
-        <v>1.013926420741248</v>
+        <v>1.013806979962116</v>
       </c>
       <c r="M8">
-        <v>1.026286970452428</v>
+        <v>1.026224468745356</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.029376676942589</v>
+        <v>1.029327210251173</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03141236333541</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.031271878226353</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019716297243088</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9860949869173636</v>
+        <v>0.9862748175442932</v>
       </c>
       <c r="D9">
-        <v>1.011330298953891</v>
+        <v>1.01157089230546</v>
       </c>
       <c r="E9">
-        <v>0.9951040091500795</v>
+        <v>0.9952677027378327</v>
       </c>
       <c r="F9">
-        <v>1.0077606831504</v>
+        <v>1.00783879803757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.043200922255417</v>
+        <v>1.043322788450687</v>
       </c>
       <c r="J9">
-        <v>1.012148506504663</v>
+        <v>1.012321734196801</v>
       </c>
       <c r="K9">
-        <v>1.024242186240217</v>
+        <v>1.02447898844164</v>
       </c>
       <c r="L9">
-        <v>1.008277022997864</v>
+        <v>1.008438027625028</v>
       </c>
       <c r="M9">
-        <v>1.020729091141513</v>
+        <v>1.020805963680546</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.024977904773606</v>
+        <v>1.025038745579559</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028231419813925</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.02840972375055</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018873699030598</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9793773987362184</v>
+        <v>0.9797868178649224</v>
       </c>
       <c r="D10">
-        <v>1.006903339521209</v>
+        <v>1.007462128137099</v>
       </c>
       <c r="E10">
-        <v>0.9898728587767905</v>
+        <v>0.990235702693034</v>
       </c>
       <c r="F10">
-        <v>1.002866545838482</v>
+        <v>1.003044588608742</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041642556221662</v>
+        <v>1.041925151172919</v>
       </c>
       <c r="J10">
-        <v>1.008433813757159</v>
+        <v>1.008826008919628</v>
       </c>
       <c r="K10">
-        <v>1.021149060738233</v>
+        <v>1.0216979460717</v>
       </c>
       <c r="L10">
-        <v>1.004427401375422</v>
+        <v>1.00478352127351</v>
       </c>
       <c r="M10">
-        <v>1.01718423608095</v>
+        <v>1.017359088796444</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.022224794987669</v>
+        <v>1.022363173827206</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.026061346978285</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026462013538405</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018285268716128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9772920565491887</v>
+        <v>0.9777579727772167</v>
       </c>
       <c r="D11">
-        <v>1.005568108451059</v>
+        <v>1.006211551976286</v>
       </c>
       <c r="E11">
-        <v>0.9883575538937465</v>
+        <v>0.9887658126221781</v>
       </c>
       <c r="F11">
-        <v>1.003307577603854</v>
+        <v>1.00350862718703</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.041251012802696</v>
+        <v>1.041576210412068</v>
       </c>
       <c r="J11">
-        <v>1.007641005537002</v>
+        <v>1.008086240155665</v>
       </c>
       <c r="K11">
-        <v>1.020385776832415</v>
+        <v>1.02101727058362</v>
       </c>
       <c r="L11">
-        <v>1.003502421044342</v>
+        <v>1.003902745231237</v>
       </c>
       <c r="M11">
-        <v>1.018167386262887</v>
+        <v>1.018364677888215</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.023446773213525</v>
+        <v>1.023602828706569</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.025554922613784</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026017225564682</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018176177784611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9768088576854579</v>
+        <v>0.9772810551373664</v>
       </c>
       <c r="D12">
-        <v>1.005271957834641</v>
+        <v>1.005928563719406</v>
       </c>
       <c r="E12">
-        <v>0.9880571943476697</v>
+        <v>0.9884683055476747</v>
       </c>
       <c r="F12">
-        <v>1.004337521755515</v>
+        <v>1.004540123397012</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.041204830588507</v>
+        <v>1.041536604673107</v>
       </c>
       <c r="J12">
-        <v>1.007628203517483</v>
+        <v>1.008079045151895</v>
       </c>
       <c r="K12">
-        <v>1.02029884767016</v>
+        <v>1.020943056441976</v>
       </c>
       <c r="L12">
-        <v>1.003416833066735</v>
+        <v>1.00381982033759</v>
       </c>
       <c r="M12">
-        <v>1.019382090841084</v>
+        <v>1.019580855670023</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.024738805653192</v>
+        <v>1.024895971605911</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.025493459403892</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025964753689751</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018184589200135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9775337565929</v>
+        <v>0.9779736968540648</v>
       </c>
       <c r="D13">
-        <v>1.005766435317331</v>
+        <v>1.006381808144865</v>
       </c>
       <c r="E13">
-        <v>0.9886764817728884</v>
+        <v>0.9890576820704206</v>
       </c>
       <c r="F13">
-        <v>1.00591378003247</v>
+        <v>1.006101682076422</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041432581812987</v>
+        <v>1.041743542498554</v>
       </c>
       <c r="J13">
-        <v>1.008224104788489</v>
+        <v>1.008644262508977</v>
       </c>
       <c r="K13">
-        <v>1.020740321478292</v>
+        <v>1.021344128927664</v>
       </c>
       <c r="L13">
-        <v>1.003979110865945</v>
+        <v>1.004352815751754</v>
       </c>
       <c r="M13">
-        <v>1.020884895299315</v>
+        <v>1.021069265285256</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026207092899479</v>
+        <v>1.026352839218453</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.025803079192707</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026245558141057</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018289319029644</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9785767264919405</v>
+        <v>0.9789776419102422</v>
       </c>
       <c r="D14">
-        <v>1.006463922133208</v>
+        <v>1.007026858364665</v>
       </c>
       <c r="E14">
-        <v>0.9895165227087405</v>
+        <v>0.989862871032041</v>
       </c>
       <c r="F14">
-        <v>1.007236363905262</v>
+        <v>1.007407155408315</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041712344239003</v>
+        <v>1.041996859328257</v>
       </c>
       <c r="J14">
-        <v>1.00890569011574</v>
+        <v>1.009288848842069</v>
       </c>
       <c r="K14">
-        <v>1.021281769586244</v>
+        <v>1.021834260683515</v>
       </c>
       <c r="L14">
-        <v>1.004656120032121</v>
+        <v>1.004995748305342</v>
       </c>
       <c r="M14">
-        <v>1.022039882791026</v>
+        <v>1.022207510029766</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027295134200284</v>
+        <v>1.027427627076373</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.026187352211926</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.026593679217535</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018404581348772</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.979106319753883</v>
+        <v>0.9794886924509754</v>
       </c>
       <c r="D15">
-        <v>1.006816343217525</v>
+        <v>1.00735384124614</v>
       </c>
       <c r="E15">
-        <v>0.9899331840166981</v>
+        <v>0.9902633057141267</v>
       </c>
       <c r="F15">
-        <v>1.007727120478006</v>
+        <v>1.007889925769383</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.04184543579217</v>
+        <v>1.04211712363552</v>
       </c>
       <c r="J15">
-        <v>1.009218366998961</v>
+        <v>1.009583957062306</v>
       </c>
       <c r="K15">
-        <v>1.021539628308548</v>
+        <v>1.022067230237547</v>
       </c>
       <c r="L15">
-        <v>1.004974476888629</v>
+        <v>1.005298244356684</v>
       </c>
       <c r="M15">
-        <v>1.022433644962168</v>
+        <v>1.022593458381346</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.027644226635675</v>
+        <v>1.02777054010471</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.026375613736263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026764911958569</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018456595777369</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9817957391379796</v>
+        <v>0.9820874247938146</v>
       </c>
       <c r="D16">
-        <v>1.008587091512383</v>
+        <v>1.008998080625952</v>
       </c>
       <c r="E16">
-        <v>0.9920091799985619</v>
+        <v>0.992261441532189</v>
       </c>
       <c r="F16">
-        <v>1.009533991446872</v>
+        <v>1.009658227135631</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.042475060394054</v>
+        <v>1.04268293173285</v>
       </c>
       <c r="J16">
-        <v>1.0106715473645</v>
+        <v>1.010951084992425</v>
       </c>
       <c r="K16">
-        <v>1.02276678768827</v>
+        <v>1.023170544324063</v>
       </c>
       <c r="L16">
-        <v>1.00648711878191</v>
+        <v>1.00673474477155</v>
       </c>
       <c r="M16">
-        <v>1.023697035791788</v>
+        <v>1.02381908972149</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.028603739134599</v>
+        <v>1.028700211031735</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.027246481266828</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027548507646077</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018689919281376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9833217990741822</v>
+        <v>0.9835639681925509</v>
       </c>
       <c r="D17">
-        <v>1.009586934074917</v>
+        <v>1.009927898733941</v>
       </c>
       <c r="E17">
-        <v>0.9931713570424717</v>
+        <v>0.9933816858237857</v>
       </c>
       <c r="F17">
-        <v>1.010233527575821</v>
+        <v>1.010336838183945</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042811018086384</v>
+        <v>1.042983539477183</v>
       </c>
       <c r="J17">
-        <v>1.011436335004141</v>
+        <v>1.011668747752614</v>
       </c>
       <c r="K17">
-        <v>1.023428932015661</v>
+        <v>1.023764066673512</v>
       </c>
       <c r="L17">
-        <v>1.007300185934449</v>
+        <v>1.007506761786334</v>
       </c>
       <c r="M17">
-        <v>1.024064474026179</v>
+        <v>1.024166020556079</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.028763911264338</v>
+        <v>1.02884418214708</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027717268910688</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027971020511155</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018808937921803</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9839486622148559</v>
+        <v>0.9841742323380226</v>
       </c>
       <c r="D18">
-        <v>1.009983797337162</v>
+        <v>1.010299530659934</v>
       </c>
       <c r="E18">
-        <v>0.9936148341697922</v>
+        <v>0.9938123219860752</v>
       </c>
       <c r="F18">
-        <v>1.009874244003439</v>
+        <v>1.009970797722846</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042911619634056</v>
+        <v>1.04307140979963</v>
       </c>
       <c r="J18">
-        <v>1.01163209193626</v>
+        <v>1.011848744666752</v>
       </c>
       <c r="K18">
-        <v>1.023632394352953</v>
+        <v>1.02394281791415</v>
       </c>
       <c r="L18">
-        <v>1.007544701694566</v>
+        <v>1.007738724496097</v>
       </c>
       <c r="M18">
-        <v>1.023524684404006</v>
+        <v>1.023619613447972</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.028096855652344</v>
+        <v>1.028171911465404</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027849355945382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028084496822649</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018831777816235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9837321751900562</v>
+        <v>0.9839736536214879</v>
       </c>
       <c r="D19">
-        <v>1.009822632094373</v>
+        <v>1.010157072365551</v>
       </c>
       <c r="E19">
-        <v>0.9933825295213763</v>
+        <v>0.9935958985044256</v>
       </c>
       <c r="F19">
-        <v>1.008447624861629</v>
+        <v>1.00855153330155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.042795674437849</v>
+        <v>1.042964942874399</v>
       </c>
       <c r="J19">
-        <v>1.011285854501959</v>
+        <v>1.011517837029821</v>
       </c>
       <c r="K19">
-        <v>1.023410295357722</v>
+        <v>1.023739139209945</v>
       </c>
       <c r="L19">
-        <v>1.007251312563747</v>
+        <v>1.007460955850032</v>
       </c>
       <c r="M19">
-        <v>1.022058347354914</v>
+        <v>1.022160510391594</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624639</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.026607470489085</v>
+        <v>1.026688272959033</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027698790856842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027947583696023</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018765865892522</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9811454963110781</v>
+        <v>0.9814938890454089</v>
       </c>
       <c r="D20">
-        <v>1.008080762474437</v>
+        <v>1.008555986357008</v>
       </c>
       <c r="E20">
-        <v>0.9912511399494356</v>
+        <v>0.9915609465308203</v>
       </c>
       <c r="F20">
-        <v>1.0041558944264</v>
+        <v>1.004307349007632</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.042067323513204</v>
+        <v>1.042307753735704</v>
       </c>
       <c r="J20">
-        <v>1.009423086651877</v>
+        <v>1.009757312964118</v>
       </c>
       <c r="K20">
-        <v>1.021982994203624</v>
+        <v>1.022450039161382</v>
       </c>
       <c r="L20">
-        <v>1.005449592003307</v>
+        <v>1.005753827590498</v>
       </c>
       <c r="M20">
-        <v>1.018126058964589</v>
+        <v>1.018274879374262</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.022959404047321</v>
+        <v>1.023077182305886</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026693585092243</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027040493510166</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01844825468114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9759105852665468</v>
+        <v>0.9764441105670985</v>
       </c>
       <c r="D21">
-        <v>1.004625689564144</v>
+        <v>1.00535392074408</v>
       </c>
       <c r="E21">
-        <v>0.9871681306831394</v>
+        <v>0.9876387239810311</v>
       </c>
       <c r="F21">
-        <v>0.9999768403358049</v>
+        <v>1.000209339092102</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040804829774322</v>
+        <v>1.041172841037327</v>
       </c>
       <c r="J21">
-        <v>1.006451181015978</v>
+        <v>1.00696080997827</v>
       </c>
       <c r="K21">
-        <v>1.019519953588981</v>
+        <v>1.020234566449816</v>
       </c>
       <c r="L21">
-        <v>1.002396754129499</v>
+        <v>1.0028581308717</v>
       </c>
       <c r="M21">
-        <v>1.014958651497618</v>
+        <v>1.015186746565519</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.020410872084893</v>
+        <v>1.020591399235183</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.02495535845974</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.025477655485346</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017966759094254</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9725904167251032</v>
+        <v>0.9732424365698028</v>
       </c>
       <c r="D22">
-        <v>1.002434715649102</v>
+        <v>1.003323573394158</v>
       </c>
       <c r="E22">
-        <v>0.9845915853428214</v>
+        <v>0.9851646680298466</v>
       </c>
       <c r="F22">
-        <v>0.9974636055753187</v>
+        <v>0.9977480309739397</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.03999245389464</v>
+        <v>1.040441316701374</v>
       </c>
       <c r="J22">
-        <v>1.004582630589178</v>
+        <v>1.005203686430393</v>
       </c>
       <c r="K22">
-        <v>1.017958094155596</v>
+        <v>1.018829475926437</v>
       </c>
       <c r="L22">
-        <v>1.000474593011927</v>
+        <v>1.001035857917593</v>
       </c>
       <c r="M22">
-        <v>1.013085476947476</v>
+        <v>1.013364232205503</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.01892833549411</v>
+        <v>1.019148958425803</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.023837342964488</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.024469190202101</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017659764725416</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9743502990154836</v>
+        <v>0.9749393098542076</v>
       </c>
       <c r="D23">
-        <v>1.003591252547224</v>
+        <v>1.004394604647766</v>
       </c>
       <c r="E23">
-        <v>0.9859551189262058</v>
+        <v>0.9864738047608491</v>
       </c>
       <c r="F23">
-        <v>0.9987970931641392</v>
+        <v>0.9990538938788135</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040421482186845</v>
+        <v>1.040827319013238</v>
       </c>
       <c r="J23">
-        <v>1.005570314388897</v>
+        <v>1.006132202279393</v>
       </c>
       <c r="K23">
-        <v>1.018780729591773</v>
+        <v>1.019568697543052</v>
       </c>
       <c r="L23">
-        <v>1.001490640574303</v>
+        <v>1.001998916712514</v>
       </c>
       <c r="M23">
-        <v>1.014079052604955</v>
+        <v>1.014330869978083</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.019714708037963</v>
+        <v>1.019914010547543</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.024409227740265</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024981145269603</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017820649080268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9811306731763311</v>
+        <v>0.9814811306610899</v>
       </c>
       <c r="D24">
-        <v>1.008060607484234</v>
+        <v>1.008537704870693</v>
       </c>
       <c r="E24">
-        <v>0.9912279685394099</v>
+        <v>0.9915399664962729</v>
       </c>
       <c r="F24">
-        <v>1.003954884799502</v>
+        <v>1.004107357371565</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.042048830150096</v>
+        <v>1.042290212151721</v>
       </c>
       <c r="J24">
-        <v>1.009374942488189</v>
+        <v>1.009711169145857</v>
       </c>
       <c r="K24">
-        <v>1.021947633204908</v>
+        <v>1.022416529580173</v>
       </c>
       <c r="L24">
-        <v>1.005410902230917</v>
+        <v>1.005717296716723</v>
       </c>
       <c r="M24">
-        <v>1.017912902376716</v>
+        <v>1.018062725117705</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.022749027137517</v>
+        <v>1.022867604798682</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.026640835820708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026986374017911</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018436042625123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9886888276318494</v>
+        <v>0.9887809900042226</v>
       </c>
       <c r="D25">
-        <v>1.013052342356324</v>
+        <v>1.013170979549719</v>
       </c>
       <c r="E25">
-        <v>0.9971385420600903</v>
+        <v>0.9972257250787189</v>
       </c>
       <c r="F25">
-        <v>1.009751364042898</v>
+        <v>1.009791364406899</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.043798338821364</v>
+        <v>1.043858468619037</v>
       </c>
       <c r="J25">
-        <v>1.013602947510933</v>
+        <v>1.013691908659724</v>
       </c>
       <c r="K25">
-        <v>1.025451360981513</v>
+        <v>1.025568216669235</v>
       </c>
       <c r="L25">
-        <v>1.009781441481871</v>
+        <v>1.009867261297694</v>
       </c>
       <c r="M25">
-        <v>1.02220016540809</v>
+        <v>1.022239560036303</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.026142186228305</v>
+        <v>1.026173365072183</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029115309266135</v>
+        <v>1.029211608829812</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01910489737908</v>
       </c>
     </row>
   </sheetData>
